--- a/PM演習_管理ツール_堀内研C班.xlsx
+++ b/PM演習_管理ツール_堀内研C班.xlsx
@@ -1901,29 +1901,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1941,29 +1947,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2811,16 +2811,16 @@
                   <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>217</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>257</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>288</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>312</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>#N/A</c:v>
@@ -2988,11 +2988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128150016"/>
-        <c:axId val="94870272"/>
+        <c:axId val="128608256"/>
+        <c:axId val="94804736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="128150016"/>
+        <c:axId val="128608256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,14 +3002,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94870272"/>
+        <c:crossAx val="94804736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94870272"/>
+        <c:axId val="94804736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3030,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128150016"/>
+        <c:crossAx val="128608256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5228,11 +5228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126516736"/>
-        <c:axId val="126817920"/>
+        <c:axId val="131547136"/>
+        <c:axId val="128390784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="126516736"/>
+        <c:axId val="131547136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5242,14 +5242,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126817920"/>
+        <c:crossAx val="128390784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126817920"/>
+        <c:axId val="128390784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5260,7 +5260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126516736"/>
+        <c:crossAx val="131547136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5769,10 +5769,10 @@
   <dimension ref="A1:DS227"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="CF77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="BV125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CQ93" sqref="CQ93"/>
+      <selection pane="bottomRight" activeCell="CN142" sqref="CN142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5791,61 +5791,61 @@
       <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="89"/>
+      <c r="C1" s="77"/>
       <c r="D1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="86" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="83" t="s">
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="80" t="s">
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="77"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="88"/>
+      <c r="AN1" s="88"/>
+      <c r="AO1" s="88"/>
+      <c r="AP1" s="89"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A2" s="48"/>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="I2" s="50">
         <f t="array" ref="I2">SUM(IF(MOD(ROW(J5:J146),2)=0,J5:J146,0))/20</f>
-        <v>1.95</v>
+        <v>2.0812499999999998</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>28</v>
@@ -5874,25 +5874,25 @@
       <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:122" ht="29.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="83" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="52" t="s">
@@ -6020,10 +6020,10 @@
       <c r="DR3" s="54"/>
     </row>
     <row r="4" spans="1:122" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="56" t="str">
         <f>データ!A2</f>
         <v>井上</v>
@@ -6040,7 +6040,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="82"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="57" t="s">
         <v>21</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
-      <c r="I5" s="87"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="58" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DR5)/データ!$D$2,"")</f>
         <v/>
@@ -6522,7 +6522,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
-      <c r="I6" s="87"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="59" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v/>
@@ -6653,7 +6653,7 @@
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
-      <c r="I7" s="87"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="58" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -6780,7 +6780,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
       <c r="H8" s="68"/>
-      <c r="I8" s="87"/>
+      <c r="I8" s="75"/>
       <c r="J8" s="59" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -17039,7 +17039,7 @@
       <c r="I84" s="70"/>
       <c r="J84" s="59">
         <f>IF(C83&lt;&gt;"",SUM(K84:DR84)/データ!$D$2,"")</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
@@ -17118,15 +17118,23 @@
       <c r="CE84" s="20"/>
       <c r="CF84" s="20"/>
       <c r="CG84" s="20"/>
-      <c r="CH84" s="20"/>
-      <c r="CI84" s="20"/>
+      <c r="CH84" s="20">
+        <v>3</v>
+      </c>
+      <c r="CI84" s="20">
+        <v>3</v>
+      </c>
       <c r="CJ84" s="20"/>
       <c r="CK84" s="20"/>
       <c r="CL84" s="20"/>
       <c r="CM84" s="41"/>
       <c r="CN84" s="21"/>
-      <c r="CO84" s="43"/>
-      <c r="CP84" s="20"/>
+      <c r="CO84" s="43">
+        <v>3</v>
+      </c>
+      <c r="CP84" s="20">
+        <v>3</v>
+      </c>
       <c r="CQ84" s="20"/>
       <c r="CR84" s="20"/>
       <c r="CS84" s="20"/>
@@ -23963,7 +23971,7 @@
       <c r="I136" s="70"/>
       <c r="J136" s="59">
         <f>IF(C135&lt;&gt;"",SUM(K136:DR136)/データ!$D$2,"")</f>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K136" s="20"/>
       <c r="L136" s="20"/>
@@ -24034,7 +24042,9 @@
       <c r="BS136" s="20"/>
       <c r="BT136" s="20"/>
       <c r="BU136" s="20"/>
-      <c r="BV136" s="20"/>
+      <c r="BV136" s="20">
+        <v>1</v>
+      </c>
       <c r="BW136" s="20"/>
       <c r="BX136" s="20"/>
       <c r="BY136" s="20"/>
@@ -24048,14 +24058,18 @@
       <c r="CG136" s="20"/>
       <c r="CH136" s="20"/>
       <c r="CI136" s="20"/>
-      <c r="CJ136" s="20"/>
+      <c r="CJ136" s="20">
+        <v>1</v>
+      </c>
       <c r="CK136" s="20"/>
       <c r="CL136" s="20"/>
       <c r="CM136" s="41"/>
       <c r="CN136" s="21"/>
       <c r="CO136" s="43"/>
       <c r="CP136" s="20"/>
-      <c r="CQ136" s="20"/>
+      <c r="CQ136" s="20">
+        <v>1</v>
+      </c>
       <c r="CR136" s="20"/>
       <c r="CS136" s="20"/>
       <c r="CT136" s="20"/>
@@ -24257,7 +24271,7 @@
       <c r="I138" s="70"/>
       <c r="J138" s="59">
         <f>IF(C137&lt;&gt;"",SUM(K138:DR138)/データ!$D$2,"")</f>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K138" s="20"/>
       <c r="L138" s="20"/>
@@ -24328,7 +24342,9 @@
       <c r="BS138" s="20"/>
       <c r="BT138" s="20"/>
       <c r="BU138" s="20"/>
-      <c r="BV138" s="20"/>
+      <c r="BV138" s="20">
+        <v>1</v>
+      </c>
       <c r="BW138" s="20"/>
       <c r="BX138" s="20"/>
       <c r="BY138" s="20"/>
@@ -24342,14 +24358,18 @@
       <c r="CG138" s="20"/>
       <c r="CH138" s="20"/>
       <c r="CI138" s="20"/>
-      <c r="CJ138" s="20"/>
+      <c r="CJ138" s="20">
+        <v>1</v>
+      </c>
       <c r="CK138" s="20"/>
       <c r="CL138" s="20"/>
       <c r="CM138" s="41"/>
       <c r="CN138" s="21"/>
       <c r="CO138" s="43"/>
       <c r="CP138" s="20"/>
-      <c r="CQ138" s="20"/>
+      <c r="CQ138" s="20">
+        <v>1</v>
+      </c>
       <c r="CR138" s="20"/>
       <c r="CS138" s="20"/>
       <c r="CT138" s="20"/>
@@ -24555,7 +24575,7 @@
       <c r="I140" s="70"/>
       <c r="J140" s="59">
         <f>IF(C139&lt;&gt;"",SUM(K140:DR140)/データ!$D$2,"")</f>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K140" s="20"/>
       <c r="L140" s="20"/>
@@ -24626,7 +24646,9 @@
       <c r="BS140" s="20"/>
       <c r="BT140" s="20"/>
       <c r="BU140" s="20"/>
-      <c r="BV140" s="20"/>
+      <c r="BV140" s="20">
+        <v>1</v>
+      </c>
       <c r="BW140" s="20"/>
       <c r="BX140" s="20"/>
       <c r="BY140" s="20"/>
@@ -24640,14 +24662,18 @@
       <c r="CG140" s="20"/>
       <c r="CH140" s="20"/>
       <c r="CI140" s="20"/>
-      <c r="CJ140" s="20"/>
+      <c r="CJ140" s="20">
+        <v>1</v>
+      </c>
       <c r="CK140" s="20"/>
       <c r="CL140" s="20"/>
       <c r="CM140" s="41"/>
       <c r="CN140" s="21"/>
       <c r="CO140" s="43"/>
       <c r="CP140" s="20"/>
-      <c r="CQ140" s="20"/>
+      <c r="CQ140" s="20">
+        <v>1</v>
+      </c>
       <c r="CR140" s="20"/>
       <c r="CS140" s="20"/>
       <c r="CT140" s="20"/>
@@ -26151,7 +26177,7 @@
       </c>
       <c r="BV149" s="13">
         <f t="array" ref="BV149">SUM(IF(MOD(ROW(BV$5:BV$146),2)=0,BV$5:BV$146,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BW149" s="13">
         <f t="array" ref="BW149">SUM(IF(MOD(ROW(BW$5:BW$146),2)=0,BW$5:BW$146,0))</f>
@@ -26199,15 +26225,15 @@
       </c>
       <c r="CH149" s="13">
         <f t="array" ref="CH149">SUM(IF(MOD(ROW(CH$5:CH$146),2)=0,CH$5:CH$146,0))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CI149" s="13">
         <f t="array" ref="CI149">SUM(IF(MOD(ROW(CI$5:CI$146),2)=0,CI$5:CI$146,0))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CJ149" s="13">
         <f t="array" ref="CJ149">SUM(IF(MOD(ROW(CJ$5:CJ$146),2)=0,CJ$5:CJ$146,0))</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CK149" s="13">
         <f t="array" ref="CK149">SUM(IF(MOD(ROW(CK$5:CK$146),2)=0,CK$5:CK$146,0))</f>
@@ -26227,15 +26253,15 @@
       </c>
       <c r="CO149" s="13">
         <f t="array" ref="CO149">SUM(IF(MOD(ROW(CO$5:CO$146),2)=0,CO$5:CO$146,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CP149" s="13">
         <f t="array" ref="CP149">SUM(IF(MOD(ROW(CP$5:CP$146),2)=0,CP$5:CP$146,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CQ149" s="13">
         <f t="array" ref="CQ149">SUM(IF(MOD(ROW(CQ$5:CQ$146),2)=0,CQ$5:CQ$146,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CR149" s="13">
         <f t="array" ref="CR149">SUM(IF(MOD(ROW(CR$5:CR$146),2)=0,CR$5:CR$146,0))</f>
@@ -27969,199 +27995,199 @@
       </c>
       <c r="BV153" s="15">
         <f t="shared" si="8"/>
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="BW153" s="15">
         <f t="shared" si="8"/>
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="BX153" s="15">
         <f t="shared" si="8"/>
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="BY153" s="15">
         <f t="shared" ref="BY153:DR153" si="9">BY149+BX153</f>
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="BZ153" s="15">
         <f t="shared" si="9"/>
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="CA153" s="15">
         <f t="shared" si="9"/>
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="CB153" s="15">
         <f t="shared" si="9"/>
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="CC153" s="15">
         <f t="shared" si="9"/>
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CD153" s="15">
         <f t="shared" si="9"/>
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CE153" s="15">
         <f t="shared" si="9"/>
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CF153" s="15">
         <f t="shared" si="9"/>
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CG153" s="15">
         <f t="shared" si="9"/>
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CH153" s="15">
         <f t="shared" si="9"/>
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="CI153" s="15">
         <f t="shared" si="9"/>
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="CJ153" s="15">
         <f t="shared" si="9"/>
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="CK153" s="15">
         <f t="shared" si="9"/>
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="CL153" s="15">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="CM153" s="15">
         <f t="shared" si="9"/>
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="CN153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="CO153" s="15">
         <f>CO149+CN153</f>
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="CP153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="CQ153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="CR153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="CS153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="CT153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="CU153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="CV153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="CW153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="CX153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="CY153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="CZ153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DA153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DB153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DC153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DD153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DE153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DF153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DG153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DH153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DI153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DJ153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DK153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DL153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DM153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DN153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DO153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DP153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DQ153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="DR153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="154" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -60615,372 +60641,269 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="653">
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -61005,269 +60928,372 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K151:DR151 K4:DR70 K85:BX85">
@@ -62835,91 +62861,91 @@
       </c>
       <c r="BM29" s="30">
         <f ca="1">IF(TODAY()&gt;=BM$27,ガント!BV153,NA())</f>
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="BN29" s="30">
         <f ca="1">IF(TODAY()&gt;=BN$27,ガント!BW153,NA())</f>
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="BO29" s="30">
         <f ca="1">IF(TODAY()&gt;=BO$27,ガント!BX153,NA())</f>
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="BP29" s="30">
         <f ca="1">IF(TODAY()&gt;=BP$27,ガント!BY153,NA())</f>
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="BQ29" s="30">
         <f ca="1">IF(TODAY()&gt;=BQ$27,ガント!BZ153,NA())</f>
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="BR29" s="30">
         <f ca="1">IF(TODAY()&gt;=BR$27,ガント!CA153,NA())</f>
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="BS29" s="30">
         <f ca="1">IF(TODAY()&gt;=BS$27,ガント!CB153,NA())</f>
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BT29" s="30">
         <f ca="1">IF(TODAY()&gt;=BT$27,ガント!CC153,NA())</f>
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BU29" s="30">
         <f ca="1">IF(TODAY()&gt;=BU$27,ガント!CD153,NA())</f>
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BV29" s="30">
         <f ca="1">IF(TODAY()&gt;=BV$27,ガント!CE153,NA())</f>
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BW29" s="30">
         <f ca="1">IF(TODAY()&gt;=BW$27,ガント!CF153,NA())</f>
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BX29" s="30">
         <f ca="1">IF(TODAY()&gt;=BX$27,ガント!CG153,NA())</f>
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="BY29" s="30">
         <f ca="1">IF(TODAY()&gt;=BY$27,ガント!CH153,NA())</f>
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="BZ29" s="30">
         <f ca="1">IF(TODAY()&gt;=BZ$27,ガント!CI153,NA())</f>
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="CA29" s="30">
         <f ca="1">IF(TODAY()&gt;=CA$27,ガント!CJ153,NA())</f>
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="CB29" s="30">
         <f ca="1">IF(TODAY()&gt;=CB$27,ガント!CK153,NA())</f>
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="CC29" s="30">
         <f ca="1">IF(TODAY()&gt;=CC$27,ガント!CL153,NA())</f>
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="CD29" s="30">
         <f ca="1">IF(TODAY()&gt;=CD$27,ガント!CM153,NA())</f>
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="CE29" s="30">
         <f ca="1">IF(TODAY()&gt;=CE$27,ガント!CN153,NA())</f>
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="CF29" s="30">
         <f ca="1">IF(TODAY()&gt;=CF$27,ガント!CO153,NA())</f>
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="CG29" s="30">
         <f ca="1">IF(TODAY()&gt;=CG$27,ガント!CP153,NA())</f>
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="CH29" s="30">
         <f ca="1">IF(TODAY()&gt;=CH$27,ガント!CQ153,NA())</f>
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="CI29" s="30" t="e">
         <f ca="1">IF(TODAY()&gt;=CI$27,ガント!CR153,NA())</f>
@@ -64195,91 +64221,91 @@
       </c>
       <c r="BM32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-29</v>
+        <v>-32</v>
       </c>
       <c r="BN32" s="23">
         <f t="shared" ref="BN32:CS32" ca="1" si="6">IF(ISERR(BN30-BN29),NA(),BN30-BN29)</f>
-        <v>-29</v>
+        <v>-32</v>
       </c>
       <c r="BO32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-29</v>
+        <v>-32</v>
       </c>
       <c r="BP32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-37</v>
+        <v>-40</v>
       </c>
       <c r="BQ32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-47</v>
+        <v>-50</v>
       </c>
       <c r="BR32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-57</v>
+        <v>-60</v>
       </c>
       <c r="BS32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-65</v>
+        <v>-68</v>
       </c>
       <c r="BT32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-69</v>
+        <v>-72</v>
       </c>
       <c r="BU32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-69</v>
+        <v>-72</v>
       </c>
       <c r="BV32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-69</v>
+        <v>-72</v>
       </c>
       <c r="BW32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-75</v>
+        <v>-78</v>
       </c>
       <c r="BX32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-81</v>
+        <v>-84</v>
       </c>
       <c r="BY32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-87</v>
+        <v>-93</v>
       </c>
       <c r="BZ32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-93</v>
+        <v>-102</v>
       </c>
       <c r="CA32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-100</v>
+        <v>-112</v>
       </c>
       <c r="CB32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-106</v>
+        <v>-118</v>
       </c>
       <c r="CC32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-112</v>
+        <v>-124</v>
       </c>
       <c r="CD32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-118</v>
+        <v>-130</v>
       </c>
       <c r="CE32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-124</v>
+        <v>-136</v>
       </c>
       <c r="CF32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-124</v>
+        <v>-139</v>
       </c>
       <c r="CG32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-124</v>
+        <v>-142</v>
       </c>
       <c r="CH32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-124</v>
+        <v>-145</v>
       </c>
       <c r="CI32" s="23" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -65101,91 +65127,91 @@
       </c>
       <c r="BM34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.86635944700460832</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="BN34" s="28">
         <f t="shared" ref="BN34:CS34" ca="1" si="14">IF(ISERR(BN30/BN29),NA(),BN30/BN29)</f>
-        <v>0.86635944700460832</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="BO34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.86635944700460832</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="BP34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.83555555555555561</v>
+        <v>0.82456140350877194</v>
       </c>
       <c r="BQ34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.8</v>
+        <v>0.78991596638655459</v>
       </c>
       <c r="BR34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.76734693877551019</v>
+        <v>0.75806451612903225</v>
       </c>
       <c r="BS34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.74308300395256921</v>
+        <v>0.734375</v>
       </c>
       <c r="BT34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.73151750972762641</v>
+        <v>0.72307692307692306</v>
       </c>
       <c r="BU34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.73151750972762641</v>
+        <v>0.72307692307692306</v>
       </c>
       <c r="BV34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.73151750972762641</v>
+        <v>0.72307692307692306</v>
       </c>
       <c r="BW34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.71482889733840305</v>
+        <v>0.70676691729323304</v>
       </c>
       <c r="BX34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.6988847583643123</v>
+        <v>0.69117647058823528</v>
       </c>
       <c r="BY34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.6836363636363636</v>
+        <v>0.66903914590747326</v>
       </c>
       <c r="BZ34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.66903914590747326</v>
+        <v>0.64827586206896548</v>
       </c>
       <c r="CA34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.65277777777777779</v>
+        <v>0.62666666666666671</v>
       </c>
       <c r="CB34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.63945578231292521</v>
+        <v>0.6143790849673203</v>
       </c>
       <c r="CC34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.62666666666666671</v>
+        <v>0.60256410256410253</v>
       </c>
       <c r="CD34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.6143790849673203</v>
+        <v>0.5911949685534591</v>
       </c>
       <c r="CE34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.60256410256410253</v>
+        <v>0.58024691358024694</v>
       </c>
       <c r="CF34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.60256410256410253</v>
+        <v>0.57492354740061158</v>
       </c>
       <c r="CG34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.60256410256410253</v>
+        <v>0.5696969696969697</v>
       </c>
       <c r="CH34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.60256410256410253</v>
+        <v>0.56456456456456461</v>
       </c>
       <c r="CI34" s="28" t="e">
         <f t="shared" ca="1" si="14"/>

--- a/PM演習_管理ツール_堀内研C班.xlsx
+++ b/PM演習_管理ツール_堀内研C班.xlsx
@@ -1901,35 +1901,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1947,23 +1941,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2799,28 +2799,28 @@
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>151</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>191</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>220</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>260</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>333</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>#N/A</c:v>
@@ -2953,13 +2953,13 @@
                   <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>188</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>188</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>188</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>#N/A</c:v>
@@ -2988,11 +2988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128608256"/>
-        <c:axId val="94804736"/>
+        <c:axId val="130775040"/>
+        <c:axId val="94870272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="128608256"/>
+        <c:axId val="130775040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,14 +3002,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94804736"/>
+        <c:crossAx val="94870272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94804736"/>
+        <c:axId val="94870272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3030,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128608256"/>
+        <c:crossAx val="130775040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5228,11 +5228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131547136"/>
-        <c:axId val="128390784"/>
+        <c:axId val="131481600"/>
+        <c:axId val="125376128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="131547136"/>
+        <c:axId val="131481600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5242,14 +5242,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128390784"/>
+        <c:crossAx val="125376128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="128390784"/>
+        <c:axId val="125376128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5260,7 +5260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131547136"/>
+        <c:crossAx val="131481600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5769,10 +5769,10 @@
   <dimension ref="A1:DS227"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="BV125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="O89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CN142" sqref="CN142"/>
+      <selection pane="bottomRight" activeCell="I89" sqref="I89:I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5791,61 +5791,61 @@
       <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="77"/>
+      <c r="C1" s="89"/>
       <c r="D1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="84" t="s">
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="82" t="s">
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="88"/>
-      <c r="AN1" s="88"/>
-      <c r="AO1" s="88"/>
-      <c r="AP1" s="89"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="77"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A2" s="48"/>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="I2" s="50">
         <f t="array" ref="I2">SUM(IF(MOD(ROW(J5:J146),2)=0,J5:J146,0))/20</f>
-        <v>2.0812499999999998</v>
+        <v>2.15625</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>28</v>
@@ -5874,25 +5874,25 @@
       <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:122" ht="29.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="83" t="s">
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="52" t="s">
@@ -6020,10 +6020,10 @@
       <c r="DR3" s="54"/>
     </row>
     <row r="4" spans="1:122" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="56" t="str">
         <f>データ!A2</f>
         <v>井上</v>
@@ -6040,7 +6040,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="83"/>
+      <c r="I4" s="82"/>
       <c r="J4" s="57" t="s">
         <v>21</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
-      <c r="I5" s="75"/>
+      <c r="I5" s="87"/>
       <c r="J5" s="58" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DR5)/データ!$D$2,"")</f>
         <v/>
@@ -6522,7 +6522,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
-      <c r="I6" s="75"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="59" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v/>
@@ -6653,7 +6653,7 @@
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
-      <c r="I7" s="75"/>
+      <c r="I7" s="87"/>
       <c r="J7" s="58" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -6780,7 +6780,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
       <c r="H8" s="68"/>
-      <c r="I8" s="75"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="59" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -16903,7 +16903,9 @@
       </c>
       <c r="G83" s="73"/>
       <c r="H83" s="73"/>
-      <c r="I83" s="69"/>
+      <c r="I83" s="69">
+        <v>1</v>
+      </c>
       <c r="J83" s="58">
         <f>IF(C83&lt;&gt;"",SUM(K83:DR83)/データ!$D$2,"")</f>
         <v>3</v>
@@ -17181,7 +17183,9 @@
         <v>97</v>
       </c>
       <c r="H85" s="73"/>
-      <c r="I85" s="69"/>
+      <c r="I85" s="69">
+        <v>1</v>
+      </c>
       <c r="J85" s="58">
         <f>IF(C85&lt;&gt;"",SUM(K85:DR85)/データ!$D$2,"")</f>
         <v>2.5</v>
@@ -17453,7 +17457,9 @@
       <c r="F87" s="73"/>
       <c r="G87" s="73"/>
       <c r="H87" s="73"/>
-      <c r="I87" s="69"/>
+      <c r="I87" s="69">
+        <v>1</v>
+      </c>
       <c r="J87" s="58">
         <f>IF(C87&lt;&gt;"",SUM(K87:DR87)/データ!$D$2,"")</f>
         <v>0.125</v>
@@ -17585,7 +17591,7 @@
       <c r="I88" s="70"/>
       <c r="J88" s="59">
         <f>IF(C87&lt;&gt;"",SUM(K88:DR88)/データ!$D$2,"")</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
@@ -17673,7 +17679,9 @@
       <c r="CN88" s="21"/>
       <c r="CO88" s="43"/>
       <c r="CP88" s="20"/>
-      <c r="CQ88" s="20"/>
+      <c r="CQ88" s="20">
+        <v>1</v>
+      </c>
       <c r="CR88" s="20"/>
       <c r="CS88" s="20"/>
       <c r="CT88" s="20"/>
@@ -23971,7 +23979,7 @@
       <c r="I136" s="70"/>
       <c r="J136" s="59">
         <f>IF(C135&lt;&gt;"",SUM(K136:DR136)/データ!$D$2,"")</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="K136" s="20"/>
       <c r="L136" s="20"/>
@@ -24014,28 +24022,36 @@
       <c r="AQ136" s="20"/>
       <c r="AR136" s="20"/>
       <c r="AS136" s="20"/>
-      <c r="AT136" s="20"/>
+      <c r="AT136" s="20">
+        <v>1</v>
+      </c>
       <c r="AU136" s="20"/>
       <c r="AV136" s="20"/>
       <c r="AW136" s="20"/>
       <c r="AX136" s="20"/>
       <c r="AY136" s="20"/>
       <c r="AZ136" s="20"/>
-      <c r="BA136" s="20"/>
+      <c r="BA136" s="20">
+        <v>1</v>
+      </c>
       <c r="BB136" s="20"/>
       <c r="BC136" s="20"/>
       <c r="BD136" s="20"/>
       <c r="BE136" s="20"/>
       <c r="BF136" s="20"/>
       <c r="BG136" s="20"/>
-      <c r="BH136" s="20"/>
+      <c r="BH136" s="20">
+        <v>1</v>
+      </c>
       <c r="BI136" s="41"/>
       <c r="BJ136" s="21"/>
       <c r="BK136" s="43"/>
       <c r="BL136" s="20"/>
       <c r="BM136" s="20"/>
       <c r="BN136" s="20"/>
-      <c r="BO136" s="20"/>
+      <c r="BO136" s="20">
+        <v>1</v>
+      </c>
       <c r="BP136" s="20"/>
       <c r="BQ136" s="20"/>
       <c r="BR136" s="20"/>
@@ -24271,7 +24287,7 @@
       <c r="I138" s="70"/>
       <c r="J138" s="59">
         <f>IF(C137&lt;&gt;"",SUM(K138:DR138)/データ!$D$2,"")</f>
-        <v>0.75</v>
+        <v>1.125</v>
       </c>
       <c r="K138" s="20"/>
       <c r="L138" s="20"/>
@@ -24314,21 +24330,27 @@
       <c r="AQ138" s="20"/>
       <c r="AR138" s="20"/>
       <c r="AS138" s="20"/>
-      <c r="AT138" s="20"/>
+      <c r="AT138" s="20">
+        <v>1</v>
+      </c>
       <c r="AU138" s="20"/>
       <c r="AV138" s="20"/>
       <c r="AW138" s="20"/>
       <c r="AX138" s="20"/>
       <c r="AY138" s="20"/>
       <c r="AZ138" s="20"/>
-      <c r="BA138" s="20"/>
+      <c r="BA138" s="20">
+        <v>1</v>
+      </c>
       <c r="BB138" s="20"/>
       <c r="BC138" s="20"/>
       <c r="BD138" s="20"/>
       <c r="BE138" s="20"/>
       <c r="BF138" s="20"/>
       <c r="BG138" s="20"/>
-      <c r="BH138" s="20"/>
+      <c r="BH138" s="20">
+        <v>1</v>
+      </c>
       <c r="BI138" s="41"/>
       <c r="BJ138" s="21"/>
       <c r="BK138" s="43"/>
@@ -24575,7 +24597,7 @@
       <c r="I140" s="70"/>
       <c r="J140" s="59">
         <f>IF(C139&lt;&gt;"",SUM(K140:DR140)/データ!$D$2,"")</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="K140" s="20"/>
       <c r="L140" s="20"/>
@@ -24618,28 +24640,36 @@
       <c r="AQ140" s="20"/>
       <c r="AR140" s="20"/>
       <c r="AS140" s="20"/>
-      <c r="AT140" s="20"/>
+      <c r="AT140" s="20">
+        <v>1</v>
+      </c>
       <c r="AU140" s="20"/>
       <c r="AV140" s="20"/>
       <c r="AW140" s="20"/>
       <c r="AX140" s="20"/>
       <c r="AY140" s="20"/>
       <c r="AZ140" s="20"/>
-      <c r="BA140" s="20"/>
+      <c r="BA140" s="20">
+        <v>1</v>
+      </c>
       <c r="BB140" s="20"/>
       <c r="BC140" s="20"/>
       <c r="BD140" s="20"/>
       <c r="BE140" s="20"/>
       <c r="BF140" s="20"/>
       <c r="BG140" s="20"/>
-      <c r="BH140" s="20"/>
+      <c r="BH140" s="20">
+        <v>1</v>
+      </c>
       <c r="BI140" s="41"/>
       <c r="BJ140" s="21"/>
       <c r="BK140" s="43"/>
       <c r="BL140" s="20"/>
       <c r="BM140" s="20"/>
       <c r="BN140" s="20"/>
-      <c r="BO140" s="20"/>
+      <c r="BO140" s="20">
+        <v>1</v>
+      </c>
       <c r="BP140" s="20"/>
       <c r="BQ140" s="20"/>
       <c r="BR140" s="20"/>
@@ -26065,7 +26095,7 @@
       </c>
       <c r="AT149" s="13">
         <f t="array" ref="AT149">SUM(IF(MOD(ROW(AT$5:AT$146),2)=0,AT$5:AT$146,0))</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AU149" s="13">
         <f t="array" ref="AU149">SUM(IF(MOD(ROW(AU$5:AU$146),2)=0,AU$5:AU$146,0))</f>
@@ -26093,7 +26123,7 @@
       </c>
       <c r="BA149" s="13">
         <f t="array" ref="BA149">SUM(IF(MOD(ROW(BA$5:BA$146),2)=0,BA$5:BA$146,0))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB149" s="13">
         <f t="array" ref="BB149">SUM(IF(MOD(ROW(BB$5:BB$146),2)=0,BB$5:BB$146,0))</f>
@@ -26121,7 +26151,7 @@
       </c>
       <c r="BH149" s="13">
         <f t="array" ref="BH149">SUM(IF(MOD(ROW(BH$5:BH$146),2)=0,BH$5:BH$146,0))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI149" s="13">
         <f t="array" ref="BI149">SUM(IF(MOD(ROW(BI$5:BI$146),2)=0,BI$5:BI$146,0))</f>
@@ -26149,7 +26179,7 @@
       </c>
       <c r="BO149" s="13">
         <f t="array" ref="BO149">SUM(IF(MOD(ROW(BO$5:BO$146),2)=0,BO$5:BO$146,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BP149" s="13">
         <f t="array" ref="BP149">SUM(IF(MOD(ROW(BP$5:BP$146),2)=0,BP$5:BP$146,0))</f>
@@ -26261,7 +26291,7 @@
       </c>
       <c r="CQ149" s="13">
         <f t="array" ref="CQ149">SUM(IF(MOD(ROW(CQ$5:CQ$146),2)=0,CQ$5:CQ$146,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CR149" s="13">
         <f t="array" ref="CR149">SUM(IF(MOD(ROW(CR$5:CR$146),2)=0,CR$5:CR$146,0))</f>
@@ -27883,311 +27913,311 @@
       </c>
       <c r="AT153" s="15">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AU153" s="15">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV153" s="15">
         <f t="shared" si="8"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AW153" s="15">
         <f t="shared" si="8"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AX153" s="15">
         <f t="shared" si="8"/>
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AY153" s="15">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AZ153" s="15">
         <f t="shared" si="8"/>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="BA153" s="15">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BB153" s="15">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BC153" s="15">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BD153" s="15">
         <f t="shared" si="8"/>
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="BE153" s="15">
         <f t="shared" si="8"/>
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="BF153" s="15">
         <f t="shared" si="8"/>
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="BG153" s="15">
         <f t="shared" si="8"/>
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="BH153" s="15">
         <f t="shared" si="8"/>
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="BI153" s="15">
         <f t="shared" si="8"/>
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="BJ153" s="15">
         <f t="shared" si="8"/>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="BK153" s="15">
         <f t="shared" si="8"/>
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="BL153" s="15">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="BM153" s="15">
         <f t="shared" si="8"/>
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="BN153" s="15">
         <f t="shared" si="8"/>
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="BO153" s="15">
         <f t="shared" si="8"/>
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="BP153" s="15">
         <f t="shared" si="8"/>
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="BQ153" s="15">
         <f t="shared" si="8"/>
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="BR153" s="15">
         <f t="shared" si="8"/>
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="BS153" s="15">
         <f t="shared" si="8"/>
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="BT153" s="15">
         <f t="shared" si="8"/>
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="BU153" s="15">
         <f t="shared" si="8"/>
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="BV153" s="15">
         <f t="shared" si="8"/>
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="BW153" s="15">
         <f t="shared" si="8"/>
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="BX153" s="15">
         <f t="shared" si="8"/>
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="BY153" s="15">
         <f t="shared" ref="BY153:DR153" si="9">BY149+BX153</f>
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="BZ153" s="15">
         <f t="shared" si="9"/>
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="CA153" s="15">
         <f t="shared" si="9"/>
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="CB153" s="15">
         <f t="shared" si="9"/>
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="CC153" s="15">
         <f t="shared" si="9"/>
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="CD153" s="15">
         <f t="shared" si="9"/>
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="CE153" s="15">
         <f t="shared" si="9"/>
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="CF153" s="15">
         <f t="shared" si="9"/>
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="CG153" s="15">
         <f t="shared" si="9"/>
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="CH153" s="15">
         <f t="shared" si="9"/>
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="CI153" s="15">
         <f t="shared" si="9"/>
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="CJ153" s="15">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="CK153" s="15">
         <f t="shared" si="9"/>
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="CL153" s="15">
         <f t="shared" si="9"/>
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="CM153" s="15">
         <f t="shared" si="9"/>
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="CN153" s="15">
         <f t="shared" si="9"/>
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="CO153" s="15">
         <f>CO149+CN153</f>
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="CP153" s="15">
         <f t="shared" si="9"/>
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="CQ153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="CR153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="CS153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="CT153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="CU153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="CV153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="CW153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="CX153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="CY153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="CZ153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DA153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DB153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DC153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DD153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DE153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DF153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DG153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DH153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DI153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DJ153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DK153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DL153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DM153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DN153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DO153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DP153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DQ153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DR153" s="15">
         <f t="shared" si="9"/>
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="154" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -28473,175 +28503,175 @@
       </c>
       <c r="CB154" s="15">
         <f>SUM(CB157:CB227)*データ!$D$2</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CC154" s="15">
         <f>SUM(CC157:CC227)*データ!$D$2</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CD154" s="15">
         <f>SUM(CD157:CD227)*データ!$D$2</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CE154" s="15">
         <f>SUM(CE157:CE227)*データ!$D$2</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CF154" s="15">
         <f>SUM(CF157:CF227)*データ!$D$2</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CG154" s="15">
         <f>SUM(CG157:CG227)*データ!$D$2</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CH154" s="15">
         <f>SUM(CH157:CH227)*データ!$D$2</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CI154" s="15">
         <f>SUM(CI157:CI227)*データ!$D$2</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CJ154" s="15">
         <f>SUM(CJ157:CJ227)*データ!$D$2</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CK154" s="15">
         <f>SUM(CK157:CK227)*データ!$D$2</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CL154" s="15">
         <f>SUM(CL157:CL227)*データ!$D$2</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CM154" s="15">
         <f>SUM(CM157:CM227)*データ!$D$2</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CN154" s="15">
         <f>SUM(CN157:CN227)*データ!$D$2</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CO154" s="15">
         <f>SUM(CO157:CO227)*データ!$D$2</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CP154" s="15">
         <f>SUM(CP157:CP227)*データ!$D$2</f>
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="CQ154" s="15">
         <f>SUM(CQ157:CQ227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="CR154" s="15">
         <f>SUM(CR157:CR227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="CS154" s="15">
         <f>SUM(CS157:CS227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="CT154" s="15">
         <f>SUM(CT157:CT227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="CU154" s="15">
         <f>SUM(CU157:CU227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="CV154" s="15">
         <f>SUM(CV157:CV227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="CW154" s="15">
         <f>SUM(CW157:CW227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="CX154" s="15">
         <f>SUM(CX157:CX227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="CY154" s="15">
         <f>SUM(CY157:CY227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="CZ154" s="15">
         <f>SUM(CZ157:CZ227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DA154" s="15">
         <f>SUM(DA157:DA227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DB154" s="15">
         <f>SUM(DB157:DB227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DC154" s="15">
         <f>SUM(DC157:DC227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DD154" s="15">
         <f>SUM(DD157:DD227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DE154" s="15">
         <f>SUM(DE157:DE227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DF154" s="15">
         <f>SUM(DF157:DF227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DG154" s="15">
         <f>SUM(DG157:DG227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DH154" s="15">
         <f>SUM(DH157:DH227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DI154" s="15">
         <f>SUM(DI157:DI227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DJ154" s="15">
         <f>SUM(DJ157:DJ227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DK154" s="15">
         <f>SUM(DK157:DK227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DL154" s="15">
         <f>SUM(DL157:DL227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DM154" s="15">
         <f>SUM(DM157:DM227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DN154" s="15">
         <f>SUM(DN157:DN227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DO154" s="15">
         <f>SUM(DO157:DO227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DP154" s="15">
         <f>SUM(DP157:DP227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DQ154" s="15">
         <f>SUM(DQ157:DQ227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="DR154" s="15">
         <f>SUM(DR157:DR227)*データ!$D$2</f>
-        <v>188</v>
+        <v>233</v>
       </c>
     </row>
     <row r="155" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -46570,119 +46600,119 @@
       </c>
       <c r="CP196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(CQ84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CQ196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(CR84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CR196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(CS84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CS196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(CT84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CT196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(CU84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CU196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(CV84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CV196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(CW84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CW196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(CX84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CX196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(CY84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CY196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(CZ84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CZ196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DA84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DA196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DB84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DB196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DC84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DC196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DD84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DD196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DE84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DE196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DF84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DF196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DG84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DG196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DH84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DH196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DI84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DI196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DJ84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DJ196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DK84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DK196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DL84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DL196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DM84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DM196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DN84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DN196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DO84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DO196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DP84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DP196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DQ84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DQ196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA(DR84:$DR84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DR196" s="14">
         <f>IF($J83&lt;&gt;"",$I83*IF(COUNTA($DR84:DS84)=0,$J83,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="11:122" x14ac:dyDescent="0.2">
@@ -46964,175 +46994,175 @@
       </c>
       <c r="CB197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CC86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CC197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CD86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CD197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CE86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CE197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CF86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CF197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CG86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CG197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CH86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CH197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CI86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CI197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CJ86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CJ197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CK86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CK197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CL86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CL197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CM86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CM197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CN86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CN197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CO86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CO197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CP86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CP197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CQ86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CQ197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CR86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CR197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CS86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CS197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CT86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CT197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CU86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CU197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CV86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CV197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CW86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CW197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CX86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CX197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CY86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CY197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(CZ86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CZ197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DA86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DA197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DB86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DB197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DC86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DC197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DD86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DD197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DE86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DE197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DF86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DF197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DG86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DG197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DH86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DH197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DI86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DI197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DJ86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DJ197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DK86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DK197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DL86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DL197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DM86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DM197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DN86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DN197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DO86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DO197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DP86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DP197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DQ86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DQ197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA(DR86:$DR86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DR197" s="14">
         <f>IF($J85&lt;&gt;"",$I85*IF(COUNTA($DR86:DS86)=0,$J85,0),0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="198" spans="11:122" x14ac:dyDescent="0.2">
@@ -47474,115 +47504,115 @@
       </c>
       <c r="CQ198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(CR88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CR198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(CS88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CS198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(CT88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CT198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(CU88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CU198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(CV88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CV198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(CW88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CW198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(CX88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CX198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(CY88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CY198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(CZ88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CZ198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DA88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DA198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DB88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DB198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DC88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DC198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DD88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DD198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DE88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DE198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DF88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DF198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DG88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DG198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DH88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DH198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DI88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DI198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DJ88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DJ198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DK88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DK198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DL88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DL198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DM88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DM198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DN88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DN198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DO88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DO198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DP88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DP198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DQ88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DQ198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA(DR88:$DR88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DR198" s="14">
         <f>IF($J87&lt;&gt;"",$I87*IF(COUNTA($DR88:DS88)=0,$J87,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="199" spans="11:122" x14ac:dyDescent="0.2">
@@ -60641,114 +60671,527 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="653">
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G35:G36"/>
@@ -60773,527 +61216,114 @@
     <mergeCell ref="E55:E56"/>
     <mergeCell ref="I55:I56"/>
     <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K151:DR151 K4:DR70 K85:BX85">
@@ -61650,7 +61680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A27:DI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:DI30"/>
     </sheetView>
   </sheetViews>
@@ -62749,203 +62779,203 @@
       </c>
       <c r="AK29" s="30">
         <f ca="1">IF(TODAY()&gt;=AK$27,ガント!AT153,NA())</f>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AL29" s="30">
         <f ca="1">IF(TODAY()&gt;=AL$27,ガント!AU153,NA())</f>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AM29" s="30">
         <f ca="1">IF(TODAY()&gt;=AM$27,ガント!AV153,NA())</f>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AN29" s="30">
         <f ca="1">IF(TODAY()&gt;=AN$27,ガント!AW153,NA())</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AO29" s="30">
         <f ca="1">IF(TODAY()&gt;=AO$27,ガント!AX153,NA())</f>
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AP29" s="30">
         <f ca="1">IF(TODAY()&gt;=AP$27,ガント!AY153,NA())</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AQ29" s="30">
         <f ca="1">IF(TODAY()&gt;=AQ$27,ガント!AZ153,NA())</f>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AR29" s="30">
         <f ca="1">IF(TODAY()&gt;=AR$27,ガント!BA153,NA())</f>
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AS29" s="30">
         <f ca="1">IF(TODAY()&gt;=AS$27,ガント!BB153,NA())</f>
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AT29" s="30">
         <f ca="1">IF(TODAY()&gt;=AT$27,ガント!BC153,NA())</f>
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AU29" s="30">
         <f ca="1">IF(TODAY()&gt;=AU$27,ガント!BD153,NA())</f>
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AV29" s="30">
         <f ca="1">IF(TODAY()&gt;=AV$27,ガント!BE153,NA())</f>
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AW29" s="30">
         <f ca="1">IF(TODAY()&gt;=AW$27,ガント!BF153,NA())</f>
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AX29" s="30">
         <f ca="1">IF(TODAY()&gt;=AX$27,ガント!BG153,NA())</f>
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AY29" s="30">
         <f ca="1">IF(TODAY()&gt;=AY$27,ガント!BH153,NA())</f>
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="AZ29" s="30">
         <f ca="1">IF(TODAY()&gt;=AZ$27,ガント!BI153,NA())</f>
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="BA29" s="30">
         <f ca="1">IF(TODAY()&gt;=BA$27,ガント!BJ153,NA())</f>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="BB29" s="30">
         <f ca="1">IF(TODAY()&gt;=BB$27,ガント!BK153,NA())</f>
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="BC29" s="30">
         <f ca="1">IF(TODAY()&gt;=BC$27,ガント!BL153,NA())</f>
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="BD29" s="30">
         <f ca="1">IF(TODAY()&gt;=BD$27,ガント!BM153,NA())</f>
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="BE29" s="30">
         <f ca="1">IF(TODAY()&gt;=BE$27,ガント!BN153,NA())</f>
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="BF29" s="30">
         <f ca="1">IF(TODAY()&gt;=BF$27,ガント!BO153,NA())</f>
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="BG29" s="30">
         <f ca="1">IF(TODAY()&gt;=BG$27,ガント!BP153,NA())</f>
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="BH29" s="30">
         <f ca="1">IF(TODAY()&gt;=BH$27,ガント!BQ153,NA())</f>
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="BI29" s="30">
         <f ca="1">IF(TODAY()&gt;=BI$27,ガント!BR153,NA())</f>
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="BJ29" s="30">
         <f ca="1">IF(TODAY()&gt;=BJ$27,ガント!BS153,NA())</f>
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="BK29" s="30">
         <f ca="1">IF(TODAY()&gt;=BK$27,ガント!BT153,NA())</f>
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="BL29" s="30">
         <f ca="1">IF(TODAY()&gt;=BL$27,ガント!BU153,NA())</f>
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="BM29" s="30">
         <f ca="1">IF(TODAY()&gt;=BM$27,ガント!BV153,NA())</f>
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="BN29" s="30">
         <f ca="1">IF(TODAY()&gt;=BN$27,ガント!BW153,NA())</f>
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="BO29" s="30">
         <f ca="1">IF(TODAY()&gt;=BO$27,ガント!BX153,NA())</f>
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="BP29" s="30">
         <f ca="1">IF(TODAY()&gt;=BP$27,ガント!BY153,NA())</f>
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="BQ29" s="30">
         <f ca="1">IF(TODAY()&gt;=BQ$27,ガント!BZ153,NA())</f>
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="BR29" s="30">
         <f ca="1">IF(TODAY()&gt;=BR$27,ガント!CA153,NA())</f>
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="BS29" s="30">
         <f ca="1">IF(TODAY()&gt;=BS$27,ガント!CB153,NA())</f>
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="BT29" s="30">
         <f ca="1">IF(TODAY()&gt;=BT$27,ガント!CC153,NA())</f>
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="BU29" s="30">
         <f ca="1">IF(TODAY()&gt;=BU$27,ガント!CD153,NA())</f>
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="BV29" s="30">
         <f ca="1">IF(TODAY()&gt;=BV$27,ガント!CE153,NA())</f>
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="BW29" s="30">
         <f ca="1">IF(TODAY()&gt;=BW$27,ガント!CF153,NA())</f>
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="BX29" s="30">
         <f ca="1">IF(TODAY()&gt;=BX$27,ガント!CG153,NA())</f>
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="BY29" s="30">
         <f ca="1">IF(TODAY()&gt;=BY$27,ガント!CH153,NA())</f>
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="BZ29" s="30">
         <f ca="1">IF(TODAY()&gt;=BZ$27,ガント!CI153,NA())</f>
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="CA29" s="30">
         <f ca="1">IF(TODAY()&gt;=CA$27,ガント!CJ153,NA())</f>
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="CB29" s="30">
         <f ca="1">IF(TODAY()&gt;=CB$27,ガント!CK153,NA())</f>
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="CC29" s="30">
         <f ca="1">IF(TODAY()&gt;=CC$27,ガント!CL153,NA())</f>
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="CD29" s="30">
         <f ca="1">IF(TODAY()&gt;=CD$27,ガント!CM153,NA())</f>
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="CE29" s="30">
         <f ca="1">IF(TODAY()&gt;=CE$27,ガント!CN153,NA())</f>
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="CF29" s="30">
         <f ca="1">IF(TODAY()&gt;=CF$27,ガント!CO153,NA())</f>
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="CG29" s="30">
         <f ca="1">IF(TODAY()&gt;=CG$27,ガント!CP153,NA())</f>
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="CH29" s="30">
         <f ca="1">IF(TODAY()&gt;=CH$27,ガント!CQ153,NA())</f>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="CI29" s="30" t="e">
         <f ca="1">IF(TODAY()&gt;=CI$27,ガント!CR153,NA())</f>
@@ -63339,67 +63369,67 @@
       </c>
       <c r="BS30" s="27">
         <f ca="1">IF(TODAY()&gt;=BS$27,ガント!CB154,NA())</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="BT30" s="27">
         <f ca="1">IF(TODAY()&gt;=BT$27,ガント!CC154,NA())</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="BU30" s="27">
         <f ca="1">IF(TODAY()&gt;=BU$27,ガント!CD154,NA())</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="BV30" s="27">
         <f ca="1">IF(TODAY()&gt;=BV$27,ガント!CE154,NA())</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="BW30" s="27">
         <f ca="1">IF(TODAY()&gt;=BW$27,ガント!CF154,NA())</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="BX30" s="27">
         <f ca="1">IF(TODAY()&gt;=BX$27,ガント!CG154,NA())</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="BY30" s="27">
         <f ca="1">IF(TODAY()&gt;=BY$27,ガント!CH154,NA())</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="BZ30" s="27">
         <f ca="1">IF(TODAY()&gt;=BZ$27,ガント!CI154,NA())</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CA30" s="27">
         <f ca="1">IF(TODAY()&gt;=CA$27,ガント!CJ154,NA())</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CB30" s="27">
         <f ca="1">IF(TODAY()&gt;=CB$27,ガント!CK154,NA())</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CC30" s="27">
         <f ca="1">IF(TODAY()&gt;=CC$27,ガント!CL154,NA())</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CD30" s="27">
         <f ca="1">IF(TODAY()&gt;=CD$27,ガント!CM154,NA())</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CE30" s="27">
         <f ca="1">IF(TODAY()&gt;=CE$27,ガント!CN154,NA())</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CF30" s="27">
         <f ca="1">IF(TODAY()&gt;=CF$27,ガント!CO154,NA())</f>
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="CG30" s="27">
         <f ca="1">IF(TODAY()&gt;=CG$27,ガント!CP154,NA())</f>
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="CH30" s="27">
         <f ca="1">IF(TODAY()&gt;=CH$27,ガント!CQ154,NA())</f>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="CI30" s="27" t="e">
         <f ca="1">IF(TODAY()&gt;=CI$27,ガント!CR154,NA())</f>
@@ -63792,67 +63822,67 @@
       </c>
       <c r="BS31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-67</v>
+        <v>-47</v>
       </c>
       <c r="BT31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-71</v>
+        <v>-51</v>
       </c>
       <c r="BU31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-79</v>
+        <v>-59</v>
       </c>
       <c r="BV31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-79</v>
+        <v>-59</v>
       </c>
       <c r="BW31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-87</v>
+        <v>-67</v>
       </c>
       <c r="BX31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-95</v>
+        <v>-75</v>
       </c>
       <c r="BY31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-103</v>
+        <v>-83</v>
       </c>
       <c r="BZ31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-111</v>
+        <v>-91</v>
       </c>
       <c r="CA31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-122</v>
+        <v>-102</v>
       </c>
       <c r="CB31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-130</v>
+        <v>-110</v>
       </c>
       <c r="CC31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-138</v>
+        <v>-118</v>
       </c>
       <c r="CD31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-146</v>
+        <v>-126</v>
       </c>
       <c r="CE31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-154</v>
+        <v>-134</v>
       </c>
       <c r="CF31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-161</v>
+        <v>-141</v>
       </c>
       <c r="CG31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-168</v>
+        <v>-124</v>
       </c>
       <c r="CH31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-177</v>
+        <v>-132</v>
       </c>
       <c r="CI31" s="25" t="e">
         <f t="shared" ca="1" si="2"/>
@@ -64109,203 +64139,203 @@
       </c>
       <c r="AK32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-73</v>
       </c>
       <c r="AL32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-77</v>
       </c>
       <c r="AM32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-79</v>
+        <v>-82</v>
       </c>
       <c r="AN32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-87</v>
+        <v>-90</v>
       </c>
       <c r="AO32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-93</v>
+        <v>-96</v>
       </c>
       <c r="AP32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-99</v>
+        <v>-102</v>
       </c>
       <c r="AQ32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-52</v>
+        <v>-55</v>
       </c>
       <c r="AR32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-55</v>
+        <v>-61</v>
       </c>
       <c r="AS32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-55</v>
+        <v>-61</v>
       </c>
       <c r="AT32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-55</v>
+        <v>-61</v>
       </c>
       <c r="AU32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-55</v>
+        <v>-61</v>
       </c>
       <c r="AV32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-54</v>
+        <v>-60</v>
       </c>
       <c r="AW32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-63</v>
+        <v>-69</v>
       </c>
       <c r="AX32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-77</v>
       </c>
       <c r="AY32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-83</v>
       </c>
       <c r="AZ32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-77</v>
+        <v>-86</v>
       </c>
       <c r="BA32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-83</v>
+        <v>-92</v>
       </c>
       <c r="BB32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-83</v>
+        <v>-92</v>
       </c>
       <c r="BC32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-40</v>
+        <v>-49</v>
       </c>
       <c r="BD32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-34</v>
+        <v>-43</v>
       </c>
       <c r="BE32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-34</v>
+        <v>-43</v>
       </c>
       <c r="BF32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-34</v>
+        <v>-45</v>
       </c>
       <c r="BG32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-34</v>
+        <v>-45</v>
       </c>
       <c r="BH32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-34</v>
+        <v>-45</v>
       </c>
       <c r="BI32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-32</v>
+        <v>-43</v>
       </c>
       <c r="BJ32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-31</v>
+        <v>-42</v>
       </c>
       <c r="BK32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-29</v>
+        <v>-40</v>
       </c>
       <c r="BL32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-29</v>
+        <v>-40</v>
       </c>
       <c r="BM32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>-32</v>
+        <v>-43</v>
       </c>
       <c r="BN32" s="23">
         <f t="shared" ref="BN32:CS32" ca="1" si="6">IF(ISERR(BN30-BN29),NA(),BN30-BN29)</f>
-        <v>-32</v>
+        <v>-43</v>
       </c>
       <c r="BO32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-32</v>
+        <v>-43</v>
       </c>
       <c r="BP32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-40</v>
+        <v>-51</v>
       </c>
       <c r="BQ32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-50</v>
+        <v>-61</v>
       </c>
       <c r="BR32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-60</v>
+        <v>-71</v>
       </c>
       <c r="BS32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-68</v>
+        <v>-59</v>
       </c>
       <c r="BT32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-72</v>
+        <v>-63</v>
       </c>
       <c r="BU32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-72</v>
+        <v>-63</v>
       </c>
       <c r="BV32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-72</v>
+        <v>-63</v>
       </c>
       <c r="BW32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-78</v>
+        <v>-69</v>
       </c>
       <c r="BX32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-84</v>
+        <v>-75</v>
       </c>
       <c r="BY32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-93</v>
+        <v>-84</v>
       </c>
       <c r="BZ32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-102</v>
+        <v>-93</v>
       </c>
       <c r="CA32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-112</v>
+        <v>-103</v>
       </c>
       <c r="CB32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-118</v>
+        <v>-109</v>
       </c>
       <c r="CC32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-124</v>
+        <v>-115</v>
       </c>
       <c r="CD32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-130</v>
+        <v>-121</v>
       </c>
       <c r="CE32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-136</v>
+        <v>-127</v>
       </c>
       <c r="CF32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-139</v>
+        <v>-130</v>
       </c>
       <c r="CG32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-142</v>
+        <v>-109</v>
       </c>
       <c r="CH32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-145</v>
+        <v>-112</v>
       </c>
       <c r="CI32" s="23" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -64698,67 +64728,67 @@
       </c>
       <c r="BS33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.73725490196078436</v>
+        <v>0.81568627450980391</v>
       </c>
       <c r="BT33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.72586872586872586</v>
+        <v>0.80308880308880304</v>
       </c>
       <c r="BU33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.70411985018726597</v>
+        <v>0.77902621722846443</v>
       </c>
       <c r="BV33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.70411985018726597</v>
+        <v>0.77902621722846443</v>
       </c>
       <c r="BW33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6836363636363636</v>
+        <v>0.75636363636363635</v>
       </c>
       <c r="BX33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.66431095406360419</v>
+        <v>0.73498233215547704</v>
       </c>
       <c r="BY33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.64604810996563578</v>
+        <v>0.71477663230240551</v>
       </c>
       <c r="BZ33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62876254180602009</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="CA33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6064516129032258</v>
+        <v>0.67096774193548392</v>
       </c>
       <c r="CB33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.5911949685534591</v>
+        <v>0.65408805031446537</v>
       </c>
       <c r="CC33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.57668711656441718</v>
+        <v>0.6380368098159509</v>
       </c>
       <c r="CD33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.56287425149700598</v>
+        <v>0.6227544910179641</v>
       </c>
       <c r="CE33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.54970760233918126</v>
+        <v>0.60818713450292394</v>
       </c>
       <c r="CF33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.5386819484240688</v>
+        <v>0.59598853868194845</v>
       </c>
       <c r="CG33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.5280898876404494</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="CH33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.51506849315068493</v>
+        <v>0.63835616438356169</v>
       </c>
       <c r="CI33" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -65015,203 +65045,203 @@
       </c>
       <c r="AK34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.125</v>
+        <v>0.12048192771084337</v>
       </c>
       <c r="AL34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.11904761904761904</v>
+        <v>0.11494252873563218</v>
       </c>
       <c r="AM34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.11235955056179775</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="AN34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.10309278350515463</v>
+        <v>0.1</v>
       </c>
       <c r="AO34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>9.7087378640776698E-2</v>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="AP34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>9.1743119266055051E-2</v>
+        <v>8.9285714285714288E-2</v>
       </c>
       <c r="AQ34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.55172413793103448</v>
+        <v>0.53781512605042014</v>
       </c>
       <c r="AR34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.54166666666666663</v>
+        <v>0.51587301587301593</v>
       </c>
       <c r="AS34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.54166666666666663</v>
+        <v>0.51587301587301593</v>
       </c>
       <c r="AT34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.54166666666666663</v>
+        <v>0.51587301587301593</v>
       </c>
       <c r="AU34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.56000000000000005</v>
+        <v>0.53435114503816794</v>
       </c>
       <c r="AV34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.58139534883720934</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="AW34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.54347826086956519</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="AX34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.51369863013698636</v>
+        <v>0.49342105263157893</v>
       </c>
       <c r="AY34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.50993377483443714</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="AZ34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.5</v>
+        <v>0.47239263803680981</v>
       </c>
       <c r="BA34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.48125000000000001</v>
+        <v>0.45562130177514792</v>
       </c>
       <c r="BB34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.50887573964497046</v>
+        <v>0.48314606741573035</v>
       </c>
       <c r="BC34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.78021978021978022</v>
+        <v>0.74345549738219896</v>
       </c>
       <c r="BD34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.81914893617021278</v>
+        <v>0.78172588832487311</v>
       </c>
       <c r="BE34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.81914893617021278</v>
+        <v>0.78172588832487311</v>
       </c>
       <c r="BF34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.82198952879581155</v>
+        <v>0.77722772277227725</v>
       </c>
       <c r="BG34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.82198952879581155</v>
+        <v>0.77722772277227725</v>
       </c>
       <c r="BH34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.82198952879581155</v>
+        <v>0.77722772277227725</v>
       </c>
       <c r="BI34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.8375634517766497</v>
+        <v>0.79326923076923073</v>
       </c>
       <c r="BJ34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.84803921568627449</v>
+        <v>0.8046511627906977</v>
       </c>
       <c r="BK34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.86190476190476195</v>
+        <v>0.8190045248868778</v>
       </c>
       <c r="BL34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.8657407407407407</v>
+        <v>0.82378854625550657</v>
       </c>
       <c r="BM34" s="28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.8545454545454545</v>
+        <v>0.81385281385281383</v>
       </c>
       <c r="BN34" s="28">
         <f t="shared" ref="BN34:CS34" ca="1" si="14">IF(ISERR(BN30/BN29),NA(),BN30/BN29)</f>
-        <v>0.8545454545454545</v>
+        <v>0.81385281385281383</v>
       </c>
       <c r="BO34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.8545454545454545</v>
+        <v>0.81385281385281383</v>
       </c>
       <c r="BP34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.82456140350877194</v>
+        <v>0.78661087866108792</v>
       </c>
       <c r="BQ34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.78991596638655459</v>
+        <v>0.75502008032128509</v>
       </c>
       <c r="BR34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.75806451612903225</v>
+        <v>0.72586872586872586</v>
       </c>
       <c r="BS34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.734375</v>
+        <v>0.77902621722846443</v>
       </c>
       <c r="BT34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.72307692307692306</v>
+        <v>0.76752767527675281</v>
       </c>
       <c r="BU34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.72307692307692306</v>
+        <v>0.76752767527675281</v>
       </c>
       <c r="BV34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.72307692307692306</v>
+        <v>0.76752767527675281</v>
       </c>
       <c r="BW34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.70676691729323304</v>
+        <v>0.75090252707581229</v>
       </c>
       <c r="BX34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.69117647058823528</v>
+        <v>0.73498233215547704</v>
       </c>
       <c r="BY34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.66903914590747326</v>
+        <v>0.71232876712328763</v>
       </c>
       <c r="BZ34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.64827586206896548</v>
+        <v>0.69102990033222589</v>
       </c>
       <c r="CA34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.62666666666666671</v>
+        <v>0.6688102893890675</v>
       </c>
       <c r="CB34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.6143790849673203</v>
+        <v>0.65615141955835965</v>
       </c>
       <c r="CC34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.60256410256410253</v>
+        <v>0.64396284829721362</v>
       </c>
       <c r="CD34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.5911949685534591</v>
+        <v>0.63221884498480241</v>
       </c>
       <c r="CE34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.58024691358024694</v>
+        <v>0.62089552238805967</v>
       </c>
       <c r="CF34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.57492354740061158</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="CG34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.5696969696969697</v>
+        <v>0.68035190615835772</v>
       </c>
       <c r="CH34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.56456456456456461</v>
+        <v>0.67536231884057973</v>
       </c>
       <c r="CI34" s="28" t="e">
         <f t="shared" ca="1" si="14"/>

--- a/PM演習_管理ツール_堀内研C班.xlsx
+++ b/PM演習_管理ツール_堀内研C班.xlsx
@@ -2820,7 +2820,7 @@
                   <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>345</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>#N/A</c:v>
@@ -2988,11 +2988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130775040"/>
+        <c:axId val="128612352"/>
         <c:axId val="94870272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="130775040"/>
+        <c:axId val="128612352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3030,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130775040"/>
+        <c:crossAx val="128612352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5228,11 +5228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131481600"/>
-        <c:axId val="125376128"/>
+        <c:axId val="131547136"/>
+        <c:axId val="128390784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="131481600"/>
+        <c:axId val="131547136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5242,14 +5242,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125376128"/>
+        <c:crossAx val="128390784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125376128"/>
+        <c:axId val="128390784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5260,7 +5260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131481600"/>
+        <c:crossAx val="131547136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5769,10 +5769,10 @@
   <dimension ref="A1:DS227"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="O89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="CJ71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I89" sqref="I89:I90"/>
+      <selection pane="bottomRight" activeCell="CZ138" sqref="CZ138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="I2" s="50">
         <f t="array" ref="I2">SUM(IF(MOD(ROW(J5:J146),2)=0,J5:J146,0))/20</f>
-        <v>2.15625</v>
+        <v>2.46875</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>28</v>
@@ -18425,7 +18425,7 @@
       <c r="I94" s="70"/>
       <c r="J94" s="59">
         <f>IF(C93&lt;&gt;"",SUM(K94:DR94)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
@@ -18518,7 +18518,9 @@
       <c r="CU94" s="20"/>
       <c r="CV94" s="20"/>
       <c r="CW94" s="20"/>
-      <c r="CX94" s="20"/>
+      <c r="CX94" s="20">
+        <v>1</v>
+      </c>
       <c r="CY94" s="20"/>
       <c r="CZ94" s="20"/>
       <c r="DA94" s="20"/>
@@ -18947,7 +18949,7 @@
       <c r="I98" s="70"/>
       <c r="J98" s="59">
         <f>IF(C97&lt;&gt;"",SUM(K98:DR98)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K98" s="20"/>
       <c r="L98" s="20"/>
@@ -19031,8 +19033,12 @@
       <c r="CL98" s="20"/>
       <c r="CM98" s="41"/>
       <c r="CN98" s="21"/>
-      <c r="CO98" s="43"/>
-      <c r="CP98" s="20"/>
+      <c r="CO98" s="43">
+        <v>6</v>
+      </c>
+      <c r="CP98" s="20">
+        <v>6</v>
+      </c>
       <c r="CQ98" s="20"/>
       <c r="CR98" s="20"/>
       <c r="CS98" s="20"/>
@@ -19211,7 +19217,7 @@
       <c r="I100" s="70"/>
       <c r="J100" s="59">
         <f>IF(C99&lt;&gt;"",SUM(K100:DR100)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="K100" s="20"/>
       <c r="L100" s="20"/>
@@ -19297,7 +19303,9 @@
       <c r="CN100" s="21"/>
       <c r="CO100" s="43"/>
       <c r="CP100" s="20"/>
-      <c r="CQ100" s="20"/>
+      <c r="CQ100" s="20">
+        <v>5</v>
+      </c>
       <c r="CR100" s="20"/>
       <c r="CS100" s="20"/>
       <c r="CT100" s="20"/>
@@ -19473,7 +19481,7 @@
       <c r="I102" s="70"/>
       <c r="J102" s="59">
         <f>IF(C101&lt;&gt;"",SUM(K102:DR102)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
@@ -19566,7 +19574,9 @@
       <c r="CU102" s="20"/>
       <c r="CV102" s="20"/>
       <c r="CW102" s="20"/>
-      <c r="CX102" s="20"/>
+      <c r="CX102" s="20">
+        <v>1</v>
+      </c>
       <c r="CY102" s="20"/>
       <c r="CZ102" s="20"/>
       <c r="DA102" s="20"/>
@@ -19997,7 +20007,7 @@
       <c r="I106" s="70"/>
       <c r="J106" s="59">
         <f>IF(C105&lt;&gt;"",SUM(K106:DR106)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K106" s="20"/>
       <c r="L106" s="20"/>
@@ -20086,8 +20096,12 @@
       <c r="CQ106" s="20"/>
       <c r="CR106" s="20"/>
       <c r="CS106" s="20"/>
-      <c r="CT106" s="20"/>
-      <c r="CU106" s="20"/>
+      <c r="CT106" s="20">
+        <v>8</v>
+      </c>
+      <c r="CU106" s="20">
+        <v>8</v>
+      </c>
       <c r="CV106" s="20"/>
       <c r="CW106" s="20"/>
       <c r="CX106" s="20"/>
@@ -20259,7 +20273,7 @@
       <c r="I108" s="70"/>
       <c r="J108" s="59">
         <f>IF(C107&lt;&gt;"",SUM(K108:DR108)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K108" s="20"/>
       <c r="L108" s="20"/>
@@ -20352,7 +20366,9 @@
       <c r="CU108" s="20"/>
       <c r="CV108" s="20"/>
       <c r="CW108" s="20"/>
-      <c r="CX108" s="20"/>
+      <c r="CX108" s="20">
+        <v>1</v>
+      </c>
       <c r="CY108" s="20"/>
       <c r="CZ108" s="20"/>
       <c r="DA108" s="20"/>
@@ -20783,7 +20799,7 @@
       <c r="I112" s="70"/>
       <c r="J112" s="59">
         <f>IF(C111&lt;&gt;"",SUM(K112:DR112)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="K112" s="20"/>
       <c r="L112" s="20"/>
@@ -20874,8 +20890,12 @@
       <c r="CS112" s="20"/>
       <c r="CT112" s="20"/>
       <c r="CU112" s="20"/>
-      <c r="CV112" s="20"/>
-      <c r="CW112" s="20"/>
+      <c r="CV112" s="20">
+        <v>5</v>
+      </c>
+      <c r="CW112" s="20">
+        <v>5</v>
+      </c>
       <c r="CX112" s="20"/>
       <c r="CY112" s="20"/>
       <c r="CZ112" s="20"/>
@@ -21045,7 +21065,7 @@
       <c r="I114" s="70"/>
       <c r="J114" s="59">
         <f>IF(C113&lt;&gt;"",SUM(K114:DR114)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K114" s="20"/>
       <c r="L114" s="20"/>
@@ -21138,7 +21158,9 @@
       <c r="CU114" s="20"/>
       <c r="CV114" s="20"/>
       <c r="CW114" s="20"/>
-      <c r="CX114" s="20"/>
+      <c r="CX114" s="20">
+        <v>1</v>
+      </c>
       <c r="CY114" s="20"/>
       <c r="CZ114" s="20"/>
       <c r="DA114" s="20"/>
@@ -23979,7 +24001,7 @@
       <c r="I136" s="70"/>
       <c r="J136" s="59">
         <f>IF(C135&lt;&gt;"",SUM(K136:DR136)/データ!$D$2,"")</f>
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="K136" s="20"/>
       <c r="L136" s="20"/>
@@ -24092,7 +24114,9 @@
       <c r="CU136" s="20"/>
       <c r="CV136" s="20"/>
       <c r="CW136" s="20"/>
-      <c r="CX136" s="20"/>
+      <c r="CX136" s="20">
+        <v>1</v>
+      </c>
       <c r="CY136" s="20"/>
       <c r="CZ136" s="20"/>
       <c r="DA136" s="20"/>
@@ -24287,7 +24311,7 @@
       <c r="I138" s="70"/>
       <c r="J138" s="59">
         <f>IF(C137&lt;&gt;"",SUM(K138:DR138)/データ!$D$2,"")</f>
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="K138" s="20"/>
       <c r="L138" s="20"/>
@@ -24398,7 +24422,9 @@
       <c r="CU138" s="20"/>
       <c r="CV138" s="20"/>
       <c r="CW138" s="20"/>
-      <c r="CX138" s="20"/>
+      <c r="CX138" s="20">
+        <v>1</v>
+      </c>
       <c r="CY138" s="20"/>
       <c r="CZ138" s="20"/>
       <c r="DA138" s="20"/>
@@ -24597,7 +24623,7 @@
       <c r="I140" s="70"/>
       <c r="J140" s="59">
         <f>IF(C139&lt;&gt;"",SUM(K140:DR140)/データ!$D$2,"")</f>
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="K140" s="20"/>
       <c r="L140" s="20"/>
@@ -24710,7 +24736,9 @@
       <c r="CU140" s="20"/>
       <c r="CV140" s="20"/>
       <c r="CW140" s="20"/>
-      <c r="CX140" s="20"/>
+      <c r="CX140" s="20">
+        <v>1</v>
+      </c>
       <c r="CY140" s="20"/>
       <c r="CZ140" s="20"/>
       <c r="DA140" s="20"/>
@@ -26283,15 +26311,15 @@
       </c>
       <c r="CO149" s="13">
         <f t="array" ref="CO149">SUM(IF(MOD(ROW(CO$5:CO$146),2)=0,CO$5:CO$146,0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="CP149" s="13">
         <f t="array" ref="CP149">SUM(IF(MOD(ROW(CP$5:CP$146),2)=0,CP$5:CP$146,0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="CQ149" s="13">
         <f t="array" ref="CQ149">SUM(IF(MOD(ROW(CQ$5:CQ$146),2)=0,CQ$5:CQ$146,0))</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="CR149" s="13">
         <f t="array" ref="CR149">SUM(IF(MOD(ROW(CR$5:CR$146),2)=0,CR$5:CR$146,0))</f>
@@ -26303,23 +26331,23 @@
       </c>
       <c r="CT149" s="13">
         <f t="array" ref="CT149">SUM(IF(MOD(ROW(CT$5:CT$146),2)=0,CT$5:CT$146,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CU149" s="13">
         <f t="array" ref="CU149">SUM(IF(MOD(ROW(CU$5:CU$146),2)=0,CU$5:CU$146,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CV149" s="13">
         <f t="array" ref="CV149">SUM(IF(MOD(ROW(CV$5:CV$146),2)=0,CV$5:CV$146,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CW149" s="13">
         <f t="array" ref="CW149">SUM(IF(MOD(ROW(CW$5:CW$146),2)=0,CW$5:CW$146,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CX149" s="13">
         <f t="array" ref="CX149">SUM(IF(MOD(ROW(CX$5:CX$146),2)=0,CX$5:CX$146,0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CY149" s="13">
         <f t="array" ref="CY149">SUM(IF(MOD(ROW(CY$5:CY$146),2)=0,CY$5:CY$146,0))</f>
@@ -28101,123 +28129,123 @@
       </c>
       <c r="CO153" s="15">
         <f>CO149+CN153</f>
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="CP153" s="15">
         <f t="shared" si="9"/>
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="CQ153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="CR153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="CS153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="CT153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="CU153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="CV153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="CW153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="CX153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="CY153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="CZ153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DA153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DB153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DC153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DD153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DE153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DF153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DG153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DH153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DI153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DJ153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DK153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DL153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DM153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DN153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DO153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DP153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DQ153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="DR153" s="15">
         <f t="shared" si="9"/>
-        <v>345</v>
+        <v>395</v>
       </c>
     </row>
     <row r="154" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -62967,39 +62995,39 @@
       </c>
       <c r="CF29" s="30">
         <f ca="1">IF(TODAY()&gt;=CF$27,ガント!CO153,NA())</f>
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="CG29" s="30">
         <f ca="1">IF(TODAY()&gt;=CG$27,ガント!CP153,NA())</f>
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="CH29" s="30">
         <f ca="1">IF(TODAY()&gt;=CH$27,ガント!CQ153,NA())</f>
-        <v>345</v>
-      </c>
-      <c r="CI29" s="30" t="e">
+        <v>362</v>
+      </c>
+      <c r="CI29" s="30">
         <f ca="1">IF(TODAY()&gt;=CI$27,ガント!CR153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CJ29" s="30" t="e">
+        <v>362</v>
+      </c>
+      <c r="CJ29" s="30">
         <f ca="1">IF(TODAY()&gt;=CJ$27,ガント!CS153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CK29" s="30" t="e">
+        <v>362</v>
+      </c>
+      <c r="CK29" s="30">
         <f ca="1">IF(TODAY()&gt;=CK$27,ガント!CT153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CL29" s="30" t="e">
+        <v>370</v>
+      </c>
+      <c r="CL29" s="30">
         <f ca="1">IF(TODAY()&gt;=CL$27,ガント!CU153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CM29" s="30" t="e">
+        <v>378</v>
+      </c>
+      <c r="CM29" s="30">
         <f ca="1">IF(TODAY()&gt;=CM$27,ガント!CV153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CN29" s="30" t="e">
+        <v>383</v>
+      </c>
+      <c r="CN29" s="30">
         <f ca="1">IF(TODAY()&gt;=CN$27,ガント!CW153,NA())</f>
-        <v>#N/A</v>
+        <v>388</v>
       </c>
       <c r="CO29" s="30" t="e">
         <f ca="1">IF(TODAY()&gt;=CO$27,ガント!CX153,NA())</f>
@@ -63431,29 +63459,29 @@
         <f ca="1">IF(TODAY()&gt;=CH$27,ガント!CQ154,NA())</f>
         <v>233</v>
       </c>
-      <c r="CI30" s="27" t="e">
+      <c r="CI30" s="27">
         <f ca="1">IF(TODAY()&gt;=CI$27,ガント!CR154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CJ30" s="27" t="e">
+        <v>233</v>
+      </c>
+      <c r="CJ30" s="27">
         <f ca="1">IF(TODAY()&gt;=CJ$27,ガント!CS154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CK30" s="27" t="e">
+        <v>233</v>
+      </c>
+      <c r="CK30" s="27">
         <f ca="1">IF(TODAY()&gt;=CK$27,ガント!CT154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CL30" s="27" t="e">
+        <v>233</v>
+      </c>
+      <c r="CL30" s="27">
         <f ca="1">IF(TODAY()&gt;=CL$27,ガント!CU154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CM30" s="27" t="e">
+        <v>233</v>
+      </c>
+      <c r="CM30" s="27">
         <f ca="1">IF(TODAY()&gt;=CM$27,ガント!CV154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CN30" s="27" t="e">
+        <v>233</v>
+      </c>
+      <c r="CN30" s="27">
         <f ca="1">IF(TODAY()&gt;=CN$27,ガント!CW154,NA())</f>
-        <v>#N/A</v>
+        <v>233</v>
       </c>
       <c r="CO30" s="27" t="e">
         <f ca="1">IF(TODAY()&gt;=CO$27,ガント!CX154,NA())</f>
@@ -63884,29 +63912,29 @@
         <f t="shared" ca="1" si="2"/>
         <v>-132</v>
       </c>
-      <c r="CI31" s="25" t="e">
+      <c r="CI31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CJ31" s="25" t="e">
+        <v>-132</v>
+      </c>
+      <c r="CJ31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CK31" s="25" t="e">
+        <v>-132</v>
+      </c>
+      <c r="CK31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CL31" s="25" t="e">
+        <v>-141</v>
+      </c>
+      <c r="CL31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CM31" s="25" t="e">
+        <v>-149</v>
+      </c>
+      <c r="CM31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CN31" s="25" t="e">
+        <v>-158</v>
+      </c>
+      <c r="CN31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>-166</v>
       </c>
       <c r="CO31" s="25" t="e">
         <f t="shared" ca="1" si="2"/>
@@ -64327,39 +64355,39 @@
       </c>
       <c r="CF32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-130</v>
+        <v>-136</v>
       </c>
       <c r="CG32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-109</v>
+        <v>-121</v>
       </c>
       <c r="CH32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-112</v>
-      </c>
-      <c r="CI32" s="23" t="e">
+        <v>-129</v>
+      </c>
+      <c r="CI32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CJ32" s="23" t="e">
+        <v>-129</v>
+      </c>
+      <c r="CJ32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CK32" s="23" t="e">
+        <v>-129</v>
+      </c>
+      <c r="CK32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CL32" s="23" t="e">
+        <v>-137</v>
+      </c>
+      <c r="CL32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CM32" s="23" t="e">
+        <v>-145</v>
+      </c>
+      <c r="CM32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CN32" s="23" t="e">
+        <v>-150</v>
+      </c>
+      <c r="CN32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
+        <v>-155</v>
       </c>
       <c r="CO32" s="23" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -64790,29 +64818,29 @@
         <f t="shared" ca="1" si="10"/>
         <v>0.63835616438356169</v>
       </c>
-      <c r="CI33" s="28" t="e">
+      <c r="CI33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CJ33" s="28" t="e">
+        <v>0.63835616438356169</v>
+      </c>
+      <c r="CJ33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CK33" s="28" t="e">
+        <v>0.63835616438356169</v>
+      </c>
+      <c r="CK33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CL33" s="28" t="e">
+        <v>0.62299465240641716</v>
+      </c>
+      <c r="CL33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CM33" s="28" t="e">
+        <v>0.60994764397905754</v>
+      </c>
+      <c r="CM33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CN33" s="28" t="e">
+        <v>0.59590792838874684</v>
+      </c>
+      <c r="CN33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
+        <v>0.58395989974937346</v>
       </c>
       <c r="CO33" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -64899,7 +64927,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:113" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>41</v>
       </c>
@@ -65233,39 +65261,39 @@
       </c>
       <c r="CF34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.61538461538461542</v>
+        <v>0.60465116279069764</v>
       </c>
       <c r="CG34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.68035190615835772</v>
+        <v>0.65722379603399439</v>
       </c>
       <c r="CH34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.67536231884057973</v>
-      </c>
-      <c r="CI34" s="28" t="e">
+        <v>0.64364640883977897</v>
+      </c>
+      <c r="CI34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CJ34" s="28" t="e">
+        <v>0.64364640883977897</v>
+      </c>
+      <c r="CJ34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CK34" s="28" t="e">
+        <v>0.64364640883977897</v>
+      </c>
+      <c r="CK34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CL34" s="28" t="e">
+        <v>0.62972972972972974</v>
+      </c>
+      <c r="CL34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CM34" s="28" t="e">
+        <v>0.6164021164021164</v>
+      </c>
+      <c r="CM34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CN34" s="28" t="e">
+        <v>0.60835509138381205</v>
+      </c>
+      <c r="CN34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
+        <v>0.60051546391752575</v>
       </c>
       <c r="CO34" s="28" t="e">
         <f t="shared" ca="1" si="14"/>

--- a/PM演習_管理ツール_堀内研C班.xlsx
+++ b/PM演習_管理ツール_堀内研C班.xlsx
@@ -1901,29 +1901,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1941,29 +1947,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2823,7 +2823,7 @@
                   <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>#N/A</c:v>
@@ -2959,10 +2959,10 @@
                   <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>233</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>#N/A</c:v>
@@ -2988,11 +2988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128612352"/>
-        <c:axId val="94870272"/>
+        <c:axId val="133277184"/>
+        <c:axId val="91724544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="128612352"/>
+        <c:axId val="133277184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,14 +3002,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94870272"/>
+        <c:crossAx val="91724544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94870272"/>
+        <c:axId val="91724544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3030,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128612352"/>
+        <c:crossAx val="133277184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5228,11 +5228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131547136"/>
-        <c:axId val="128390784"/>
+        <c:axId val="127429120"/>
+        <c:axId val="105584256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="131547136"/>
+        <c:axId val="127429120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5242,14 +5242,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128390784"/>
+        <c:crossAx val="105584256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="128390784"/>
+        <c:axId val="105584256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5260,7 +5260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131547136"/>
+        <c:crossAx val="127429120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5769,10 +5769,10 @@
   <dimension ref="A1:DS227"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="CJ71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="CP41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CZ138" sqref="CZ138"/>
+      <selection pane="bottomRight" activeCell="CT130" sqref="CT130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5791,61 +5791,61 @@
       <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="89"/>
+      <c r="C1" s="77"/>
       <c r="D1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="86" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="83" t="s">
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="80" t="s">
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="77"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="88"/>
+      <c r="AN1" s="88"/>
+      <c r="AO1" s="88"/>
+      <c r="AP1" s="89"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A2" s="48"/>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="I2" s="50">
         <f t="array" ref="I2">SUM(IF(MOD(ROW(J5:J146),2)=0,J5:J146,0))/20</f>
-        <v>2.46875</v>
+        <v>2.5437500000000002</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>28</v>
@@ -5874,25 +5874,25 @@
       <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:122" ht="29.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="83" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="52" t="s">
@@ -6020,10 +6020,10 @@
       <c r="DR3" s="54"/>
     </row>
     <row r="4" spans="1:122" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="56" t="str">
         <f>データ!A2</f>
         <v>井上</v>
@@ -6040,7 +6040,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="82"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="57" t="s">
         <v>21</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
-      <c r="I5" s="87"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="58" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DR5)/データ!$D$2,"")</f>
         <v/>
@@ -6522,7 +6522,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
-      <c r="I6" s="87"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="59" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v/>
@@ -6653,7 +6653,7 @@
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
-      <c r="I7" s="87"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="58" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -6780,7 +6780,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
       <c r="H8" s="68"/>
-      <c r="I8" s="87"/>
+      <c r="I8" s="75"/>
       <c r="J8" s="59" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -17985,7 +17985,9 @@
       </c>
       <c r="G91" s="73"/>
       <c r="H91" s="73"/>
-      <c r="I91" s="69"/>
+      <c r="I91" s="69">
+        <v>1</v>
+      </c>
       <c r="J91" s="58">
         <f>IF(C91&lt;&gt;"",SUM(K91:DR91)/データ!$D$2,"")</f>
         <v>9.875</v>
@@ -18293,7 +18295,9 @@
       <c r="F93" s="73"/>
       <c r="G93" s="73"/>
       <c r="H93" s="73"/>
-      <c r="I93" s="69"/>
+      <c r="I93" s="69">
+        <v>1</v>
+      </c>
       <c r="J93" s="58">
         <f>IF(C93&lt;&gt;"",SUM(K93:DR93)/データ!$D$2,"")</f>
         <v>0.125</v>
@@ -18815,7 +18819,9 @@
       <c r="F97" s="73"/>
       <c r="G97" s="73"/>
       <c r="H97" s="73"/>
-      <c r="I97" s="69"/>
+      <c r="I97" s="69">
+        <v>1</v>
+      </c>
       <c r="J97" s="58">
         <f>IF(C97&lt;&gt;"",SUM(K97:DR97)/データ!$D$2,"")</f>
         <v>1.75</v>
@@ -19085,7 +19091,9 @@
       </c>
       <c r="G99" s="68"/>
       <c r="H99" s="68"/>
-      <c r="I99" s="69"/>
+      <c r="I99" s="69">
+        <v>1</v>
+      </c>
       <c r="J99" s="58">
         <f>IF(C99&lt;&gt;"",SUM(K99:DR99)/データ!$D$2,"")</f>
         <v>0.625</v>
@@ -19349,7 +19357,9 @@
       <c r="F101" s="68"/>
       <c r="G101" s="68"/>
       <c r="H101" s="68"/>
-      <c r="I101" s="69"/>
+      <c r="I101" s="69">
+        <v>1</v>
+      </c>
       <c r="J101" s="58">
         <f>IF(C101&lt;&gt;"",SUM(K101:DR101)/データ!$D$2,"")</f>
         <v>0.125</v>
@@ -19873,7 +19883,9 @@
       <c r="F105" s="68"/>
       <c r="G105" s="68"/>
       <c r="H105" s="68"/>
-      <c r="I105" s="69"/>
+      <c r="I105" s="69">
+        <v>1</v>
+      </c>
       <c r="J105" s="58">
         <f>IF(C105&lt;&gt;"",SUM(K105:DR105)/データ!$D$2,"")</f>
         <v>2.125</v>
@@ -20007,7 +20019,7 @@
       <c r="I106" s="70"/>
       <c r="J106" s="59">
         <f>IF(C105&lt;&gt;"",SUM(K106:DR106)/データ!$D$2,"")</f>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K106" s="20"/>
       <c r="L106" s="20"/>
@@ -20108,7 +20120,9 @@
       <c r="CY106" s="20"/>
       <c r="CZ106" s="20"/>
       <c r="DA106" s="20"/>
-      <c r="DB106" s="20"/>
+      <c r="DB106" s="20">
+        <v>2</v>
+      </c>
       <c r="DC106" s="20"/>
       <c r="DD106" s="20"/>
       <c r="DE106" s="20"/>
@@ -20141,7 +20155,9 @@
         <v>97</v>
       </c>
       <c r="H107" s="68"/>
-      <c r="I107" s="69"/>
+      <c r="I107" s="69">
+        <v>1</v>
+      </c>
       <c r="J107" s="58">
         <f>IF(C107&lt;&gt;"",SUM(K107:DR107)/データ!$D$2,"")</f>
         <v>0.125</v>
@@ -20665,7 +20681,9 @@
       </c>
       <c r="G111" s="68"/>
       <c r="H111" s="68"/>
-      <c r="I111" s="69"/>
+      <c r="I111" s="69">
+        <v>1</v>
+      </c>
       <c r="J111" s="58">
         <f>IF(C111&lt;&gt;"",SUM(K111:DR111)/データ!$D$2,"")</f>
         <v>1.375</v>
@@ -20933,7 +20951,9 @@
       <c r="F113" s="68"/>
       <c r="G113" s="68"/>
       <c r="H113" s="68"/>
-      <c r="I113" s="69"/>
+      <c r="I113" s="69">
+        <v>1</v>
+      </c>
       <c r="J113" s="58">
         <f>IF(C113&lt;&gt;"",SUM(K113:DR113)/データ!$D$2,"")</f>
         <v>0.125</v>
@@ -21457,7 +21477,9 @@
       <c r="F117" s="68"/>
       <c r="G117" s="68"/>
       <c r="H117" s="68"/>
-      <c r="I117" s="69"/>
+      <c r="I117" s="69">
+        <v>0</v>
+      </c>
       <c r="J117" s="58">
         <f>IF(C117&lt;&gt;"",SUM(K117:DR117)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -21721,7 +21743,9 @@
       <c r="F119" s="68"/>
       <c r="G119" s="68"/>
       <c r="H119" s="68"/>
-      <c r="I119" s="69"/>
+      <c r="I119" s="69">
+        <v>0</v>
+      </c>
       <c r="J119" s="58">
         <f>IF(C119&lt;&gt;"",SUM(K119:DR119)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -21985,7 +22009,9 @@
       <c r="F121" s="73"/>
       <c r="G121" s="73"/>
       <c r="H121" s="73"/>
-      <c r="I121" s="69"/>
+      <c r="I121" s="69">
+        <v>0</v>
+      </c>
       <c r="J121" s="58">
         <f>IF(C121&lt;&gt;"",SUM(K121:DR121)/データ!$D$2,"")</f>
         <v>0.375</v>
@@ -22247,7 +22273,9 @@
         <v>97</v>
       </c>
       <c r="H123" s="68"/>
-      <c r="I123" s="69"/>
+      <c r="I123" s="69">
+        <v>0</v>
+      </c>
       <c r="J123" s="58">
         <f>IF(C123&lt;&gt;"",SUM(K123:DR123)/データ!$D$2,"")</f>
         <v>0.125</v>
@@ -22771,7 +22799,9 @@
         <v>97</v>
       </c>
       <c r="H127" s="68"/>
-      <c r="I127" s="69"/>
+      <c r="I127" s="69">
+        <v>1</v>
+      </c>
       <c r="J127" s="58">
         <f>IF(C127&lt;&gt;"",SUM(K127:DR127)/データ!$D$2,"")</f>
         <v>1.25</v>
@@ -22911,7 +22941,7 @@
       <c r="I128" s="70"/>
       <c r="J128" s="59">
         <f>IF(C127&lt;&gt;"",SUM(K128:DR128)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="K128" s="20"/>
       <c r="L128" s="20"/>
@@ -23007,11 +23037,21 @@
       <c r="CX128" s="20"/>
       <c r="CY128" s="20"/>
       <c r="CZ128" s="20"/>
-      <c r="DA128" s="20"/>
-      <c r="DB128" s="20"/>
-      <c r="DC128" s="20"/>
-      <c r="DD128" s="20"/>
-      <c r="DE128" s="20"/>
+      <c r="DA128" s="20">
+        <v>2</v>
+      </c>
+      <c r="DB128" s="20">
+        <v>2</v>
+      </c>
+      <c r="DC128" s="20">
+        <v>2</v>
+      </c>
+      <c r="DD128" s="20">
+        <v>2</v>
+      </c>
+      <c r="DE128" s="20">
+        <v>2</v>
+      </c>
       <c r="DF128" s="20"/>
       <c r="DG128" s="20"/>
       <c r="DH128" s="20"/>
@@ -26359,23 +26399,23 @@
       </c>
       <c r="DA149" s="13">
         <f t="array" ref="DA149">SUM(IF(MOD(ROW(DA$5:DA$146),2)=0,DA$5:DA$146,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DB149" s="13">
         <f t="array" ref="DB149">SUM(IF(MOD(ROW(DB$5:DB$146),2)=0,DB$5:DB$146,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DC149" s="13">
         <f t="array" ref="DC149">SUM(IF(MOD(ROW(DC$5:DC$146),2)=0,DC$5:DC$146,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DD149" s="13">
         <f t="array" ref="DD149">SUM(IF(MOD(ROW(DD$5:DD$146),2)=0,DD$5:DD$146,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DE149" s="13">
         <f t="array" ref="DE149">SUM(IF(MOD(ROW(DE$5:DE$146),2)=0,DE$5:DE$146,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DF149" s="13">
         <f t="array" ref="DF149">SUM(IF(MOD(ROW(DF$5:DF$146),2)=0,DF$5:DF$146,0))</f>
@@ -28177,75 +28217,75 @@
       </c>
       <c r="DA153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="DB153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="DC153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="DD153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="DE153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="DF153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="DG153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="DH153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="DI153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="DJ153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="DK153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="DL153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="DM153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="DN153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="DO153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="DP153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="DQ153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="DR153" s="15">
         <f t="shared" si="9"/>
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="154" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -28579,127 +28619,127 @@
       </c>
       <c r="CN154" s="15">
         <f>SUM(CN157:CN227)*データ!$D$2</f>
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="CO154" s="15">
         <f>SUM(CO157:CO227)*データ!$D$2</f>
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="CP154" s="15">
         <f>SUM(CP157:CP227)*データ!$D$2</f>
-        <v>232</v>
+        <v>325</v>
       </c>
       <c r="CQ154" s="15">
         <f>SUM(CQ157:CQ227)*データ!$D$2</f>
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="CR154" s="15">
         <f>SUM(CR157:CR227)*データ!$D$2</f>
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="CS154" s="15">
         <f>SUM(CS157:CS227)*データ!$D$2</f>
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="CT154" s="15">
         <f>SUM(CT157:CT227)*データ!$D$2</f>
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="CU154" s="15">
         <f>SUM(CU157:CU227)*データ!$D$2</f>
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="CV154" s="15">
         <f>SUM(CV157:CV227)*データ!$D$2</f>
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="CW154" s="15">
         <f>SUM(CW157:CW227)*データ!$D$2</f>
-        <v>233</v>
+        <v>342</v>
       </c>
       <c r="CX154" s="15">
         <f>SUM(CX157:CX227)*データ!$D$2</f>
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="CY154" s="15">
         <f>SUM(CY157:CY227)*データ!$D$2</f>
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="CZ154" s="15">
         <f>SUM(CZ157:CZ227)*データ!$D$2</f>
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="DA154" s="15">
         <f>SUM(DA157:DA227)*データ!$D$2</f>
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="DB154" s="15">
         <f>SUM(DB157:DB227)*データ!$D$2</f>
-        <v>233</v>
+        <v>363</v>
       </c>
       <c r="DC154" s="15">
         <f>SUM(DC157:DC227)*データ!$D$2</f>
-        <v>233</v>
+        <v>363</v>
       </c>
       <c r="DD154" s="15">
         <f>SUM(DD157:DD227)*データ!$D$2</f>
-        <v>233</v>
+        <v>363</v>
       </c>
       <c r="DE154" s="15">
         <f>SUM(DE157:DE227)*データ!$D$2</f>
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="DF154" s="15">
         <f>SUM(DF157:DF227)*データ!$D$2</f>
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="DG154" s="15">
         <f>SUM(DG157:DG227)*データ!$D$2</f>
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="DH154" s="15">
         <f>SUM(DH157:DH227)*データ!$D$2</f>
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="DI154" s="15">
         <f>SUM(DI157:DI227)*データ!$D$2</f>
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="DJ154" s="15">
         <f>SUM(DJ157:DJ227)*データ!$D$2</f>
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="DK154" s="15">
         <f>SUM(DK157:DK227)*データ!$D$2</f>
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="DL154" s="15">
         <f>SUM(DL157:DL227)*データ!$D$2</f>
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="DM154" s="15">
         <f>SUM(DM157:DM227)*データ!$D$2</f>
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="DN154" s="15">
         <f>SUM(DN157:DN227)*データ!$D$2</f>
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="DO154" s="15">
         <f>SUM(DO157:DO227)*データ!$D$2</f>
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="DP154" s="15">
         <f>SUM(DP157:DP227)*データ!$D$2</f>
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="DQ154" s="15">
         <f>SUM(DQ157:DQ227)*データ!$D$2</f>
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="DR154" s="15">
         <f>SUM(DR157:DR227)*データ!$D$2</f>
-        <v>233</v>
+        <v>373</v>
       </c>
     </row>
     <row r="155" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -48420,127 +48460,127 @@
       </c>
       <c r="CN200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(CO92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="CO200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(CP92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="CP200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(CQ92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="CQ200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(CR92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="CR200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(CS92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="CS200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(CT92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="CT200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(CU92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="CU200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(CV92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="CV200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(CW92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="CW200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(CX92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="CX200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(CY92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="CY200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(CZ92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="CZ200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DA92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DA200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DB92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DB200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DC92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DC200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DD92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DD200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DE92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DE200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DF92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DF200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DG92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DG200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DH92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DH200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DI92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DI200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DJ92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DJ200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DK92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DK200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DL92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DL200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DM92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DM200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DN92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DN200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DO92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DO200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DP92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DP200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DQ92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DQ200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA(DR92:$DR92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="DR200" s="14">
         <f>IF($J91&lt;&gt;"",$I91*IF(COUNTA($DR92:DS92)=0,$J91,0),0)</f>
-        <v>0</v>
+        <v>9.875</v>
       </c>
     </row>
     <row r="201" spans="11:122" x14ac:dyDescent="0.2">
@@ -48910,87 +48950,87 @@
       </c>
       <c r="CX201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(CY94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CY201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(CZ94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CZ201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DA94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DA201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DB94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DB201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DC94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DC201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DD94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DD201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DE94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DE201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DF94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DF201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DG94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DG201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DH94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DH201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DI94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DI201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DJ94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DJ201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DK94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DK201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DL94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DL201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DM94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DM201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DN94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DN201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DO94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DO201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DP94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DP201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DQ94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DQ201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA(DR94:$DR94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DR201" s="14">
         <f>IF($J93&lt;&gt;"",$I93*IF(COUNTA($DR94:DS94)=0,$J93,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="202" spans="11:122" x14ac:dyDescent="0.2">
@@ -49778,119 +49818,119 @@
       </c>
       <c r="CP203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(CQ98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="CQ203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(CR98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="CR203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(CS98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="CS203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(CT98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="CT203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(CU98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="CU203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(CV98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="CV203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(CW98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="CW203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(CX98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="CX203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(CY98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="CY203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(CZ98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="CZ203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DA98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DA203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DB98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DB203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DC98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DC203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DD98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DD203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DE98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DE203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DF98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DF203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DG98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DG203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DH98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DH203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DI98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DI203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DJ98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DJ203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DK98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DK203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DL98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DL203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DM98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DM203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DN98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DN203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DO98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DO203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DP98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DP203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DQ98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DQ203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA(DR98:$DR98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="DR203" s="14">
         <f>IF($J97&lt;&gt;"",$I97*IF(COUNTA($DR98:DS98)=0,$J97,0),0)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="204" spans="11:122" x14ac:dyDescent="0.2">
@@ -50232,115 +50272,115 @@
       </c>
       <c r="CQ204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(CR100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="CR204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(CS100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="CS204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(CT100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="CT204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(CU100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="CU204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(CV100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="CV204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(CW100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="CW204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(CX100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="CX204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(CY100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="CY204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(CZ100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="CZ204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DA100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DA204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DB100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DB204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DC100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DC204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DD100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DD204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DE100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DE204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DF100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DF204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DG100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DG204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DH100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DH204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DI100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DI204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DJ100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DJ204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DK100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DK204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DL100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DL204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DM100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DM204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DN100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DN204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DO100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DO204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DP100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DP204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DQ100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DQ204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA(DR100:$DR100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DR204" s="14">
         <f>IF($J99&lt;&gt;"",$I99*IF(COUNTA($DR100:DS100)=0,$J99,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="205" spans="11:122" x14ac:dyDescent="0.2">
@@ -50710,87 +50750,87 @@
       </c>
       <c r="CX205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(CY102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CY205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(CZ102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CZ205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DA102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DA205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DB102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DB205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DC102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DC205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DD102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DD205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DE102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DE205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DF102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DF205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DG102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DG205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DH102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DH205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DI102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DI205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DJ102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DJ205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DK102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DK205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DL102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DL205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DM102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DM205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DN102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DN205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DO102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DO205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DP102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DP205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DQ102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DQ205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA(DR102:$DR102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DR205" s="14">
         <f>IF($J101&lt;&gt;"",$I101*IF(COUNTA($DR102:DS102)=0,$J101,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="206" spans="11:122" x14ac:dyDescent="0.2">
@@ -51626,71 +51666,71 @@
       </c>
       <c r="DB207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DC106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DC207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DD106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DD207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DE106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DE207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DF106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DF207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DG106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DG207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DH106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DH207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DI106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DI207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DJ106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DJ207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DK106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DK207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DL106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DL207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DM106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DM207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DN106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DN207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DO106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DO207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DP106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DP207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DQ106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DQ207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA(DR106:$DR106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="DR207" s="14">
         <f>IF($J105&lt;&gt;"",$I105*IF(COUNTA($DR106:DS106)=0,$J105,0),0)</f>
-        <v>0</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="208" spans="11:122" x14ac:dyDescent="0.2">
@@ -52060,87 +52100,87 @@
       </c>
       <c r="CX208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(CY108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CY208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(CZ108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CZ208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DA108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DA208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DB108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DB208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DC108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DC208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DD108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DD208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DE108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DE208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DF108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DF208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DG108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DG208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DH108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DH208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DI108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DI208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DJ108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DJ208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DK108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DK208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DL108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DL208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DM108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DM208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DN108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DN208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DO108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DO208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DP108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DP208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DQ108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DQ208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA(DR108:$DR108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DR208" s="14">
         <f>IF($J107&lt;&gt;"",$I107*IF(COUNTA($DR108:DS108)=0,$J107,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="209" spans="11:122" x14ac:dyDescent="0.2">
@@ -52956,91 +52996,91 @@
       </c>
       <c r="CW210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(CX112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="CX210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(CY112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="CY210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(CZ112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="CZ210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DA112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DA210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DB112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DB210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DC112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DC210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DD112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DD210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DE112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DE210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DF112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DF210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DG112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DG210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DH112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DH210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DI112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DI210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DJ112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DJ210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DK112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DK210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DL112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DL210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DM112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DM210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DN112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DN210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DO112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DO210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DP112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DP210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DQ112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DQ210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA(DR112:$DR112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="DR210" s="14">
         <f>IF($J111&lt;&gt;"",$I111*IF(COUNTA($DR112:DS112)=0,$J111,0),0)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="211" spans="11:122" x14ac:dyDescent="0.2">
@@ -53410,87 +53450,87 @@
       </c>
       <c r="CX211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(CY114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CY211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(CZ114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CZ211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DA114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DA211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DB114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DB211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DC114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DC211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DD114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DD211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DE114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DE211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DF114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DF211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DG114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DG211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DH114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DH211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DI114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DI211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DJ114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DJ211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DK114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DK211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DL114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DL211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DM114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DM211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DN114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DN211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DO114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DO211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DP114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DP211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DQ114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DQ211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA(DR114:$DR114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DR211" s="14">
         <f>IF($J113&lt;&gt;"",$I113*IF(COUNTA($DR114:DS114)=0,$J113,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="212" spans="11:122" x14ac:dyDescent="0.2">
@@ -56588,59 +56628,59 @@
       </c>
       <c r="DE218" s="14">
         <f>IF($J127&lt;&gt;"",$I127*IF(COUNTA(DF128:$DR128)=0,$J127,0),0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="DF218" s="14">
         <f>IF($J127&lt;&gt;"",$I127*IF(COUNTA(DG128:$DR128)=0,$J127,0),0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="DG218" s="14">
         <f>IF($J127&lt;&gt;"",$I127*IF(COUNTA(DH128:$DR128)=0,$J127,0),0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="DH218" s="14">
         <f>IF($J127&lt;&gt;"",$I127*IF(COUNTA(DI128:$DR128)=0,$J127,0),0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="DI218" s="14">
         <f>IF($J127&lt;&gt;"",$I127*IF(COUNTA(DJ128:$DR128)=0,$J127,0),0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="DJ218" s="14">
         <f>IF($J127&lt;&gt;"",$I127*IF(COUNTA(DK128:$DR128)=0,$J127,0),0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="DK218" s="14">
         <f>IF($J127&lt;&gt;"",$I127*IF(COUNTA(DL128:$DR128)=0,$J127,0),0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="DL218" s="14">
         <f>IF($J127&lt;&gt;"",$I127*IF(COUNTA(DM128:$DR128)=0,$J127,0),0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="DM218" s="14">
         <f>IF($J127&lt;&gt;"",$I127*IF(COUNTA(DN128:$DR128)=0,$J127,0),0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="DN218" s="14">
         <f>IF($J127&lt;&gt;"",$I127*IF(COUNTA(DO128:$DR128)=0,$J127,0),0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="DO218" s="14">
         <f>IF($J127&lt;&gt;"",$I127*IF(COUNTA(DP128:$DR128)=0,$J127,0),0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="DP218" s="14">
         <f>IF($J127&lt;&gt;"",$I127*IF(COUNTA(DQ128:$DR128)=0,$J127,0),0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="DQ218" s="14">
         <f>IF($J127&lt;&gt;"",$I127*IF(COUNTA(DR128:$DR128)=0,$J127,0),0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="DR218" s="14">
         <f>IF($J127&lt;&gt;"",$I127*IF(COUNTA($DR128:DS128)=0,$J127,0),0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="219" spans="11:122" x14ac:dyDescent="0.2">
@@ -60699,372 +60739,269 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="653">
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -61089,269 +61026,372 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K151:DR151 K4:DR70 K85:BX85">
@@ -61708,7 +61748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A27:DI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:DI30"/>
     </sheetView>
   </sheetViews>
@@ -62660,7 +62700,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:113" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="str">
         <f>ガント!J153</f>
         <v>AC</v>
@@ -63029,33 +63069,33 @@
         <f ca="1">IF(TODAY()&gt;=CN$27,ガント!CW153,NA())</f>
         <v>388</v>
       </c>
-      <c r="CO29" s="30" t="e">
+      <c r="CO29" s="30">
         <f ca="1">IF(TODAY()&gt;=CO$27,ガント!CX153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CP29" s="30" t="e">
+        <v>395</v>
+      </c>
+      <c r="CP29" s="30">
         <f ca="1">IF(TODAY()&gt;=CP$27,ガント!CY153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CQ29" s="30" t="e">
+        <v>395</v>
+      </c>
+      <c r="CQ29" s="30">
         <f ca="1">IF(TODAY()&gt;=CQ$27,ガント!CZ153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CR29" s="30" t="e">
+        <v>395</v>
+      </c>
+      <c r="CR29" s="30">
         <f ca="1">IF(TODAY()&gt;=CR$27,ガント!DA153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CS29" s="30" t="e">
+        <v>397</v>
+      </c>
+      <c r="CS29" s="30">
         <f ca="1">IF(TODAY()&gt;=CS$27,ガント!DB153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CT29" s="30" t="e">
+        <v>401</v>
+      </c>
+      <c r="CT29" s="30">
         <f ca="1">IF(TODAY()&gt;=CT$27,ガント!DC153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CU29" s="30" t="e">
+        <v>403</v>
+      </c>
+      <c r="CU29" s="30">
         <f ca="1">IF(TODAY()&gt;=CU$27,ガント!DD153,NA())</f>
-        <v>#N/A</v>
+        <v>405</v>
       </c>
       <c r="CV29" s="30" t="e">
         <f ca="1">IF(TODAY()&gt;=CV$27,ガント!DE153,NA())</f>
@@ -63114,7 +63154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:113" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:113" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="str">
         <f>ガント!J154</f>
         <v>EV</v>
@@ -63445,71 +63485,71 @@
       </c>
       <c r="CE30" s="27">
         <f ca="1">IF(TODAY()&gt;=CE$27,ガント!CN154,NA())</f>
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="CF30" s="27">
         <f ca="1">IF(TODAY()&gt;=CF$27,ガント!CO154,NA())</f>
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="CG30" s="27">
         <f ca="1">IF(TODAY()&gt;=CG$27,ガント!CP154,NA())</f>
-        <v>232</v>
+        <v>325</v>
       </c>
       <c r="CH30" s="27">
         <f ca="1">IF(TODAY()&gt;=CH$27,ガント!CQ154,NA())</f>
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="CI30" s="27">
         <f ca="1">IF(TODAY()&gt;=CI$27,ガント!CR154,NA())</f>
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="CJ30" s="27">
         <f ca="1">IF(TODAY()&gt;=CJ$27,ガント!CS154,NA())</f>
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="CK30" s="27">
         <f ca="1">IF(TODAY()&gt;=CK$27,ガント!CT154,NA())</f>
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="CL30" s="27">
         <f ca="1">IF(TODAY()&gt;=CL$27,ガント!CU154,NA())</f>
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="CM30" s="27">
         <f ca="1">IF(TODAY()&gt;=CM$27,ガント!CV154,NA())</f>
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="CN30" s="27">
         <f ca="1">IF(TODAY()&gt;=CN$27,ガント!CW154,NA())</f>
-        <v>233</v>
-      </c>
-      <c r="CO30" s="27" t="e">
+        <v>342</v>
+      </c>
+      <c r="CO30" s="27">
         <f ca="1">IF(TODAY()&gt;=CO$27,ガント!CX154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CP30" s="27" t="e">
+        <v>346</v>
+      </c>
+      <c r="CP30" s="27">
         <f ca="1">IF(TODAY()&gt;=CP$27,ガント!CY154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CQ30" s="27" t="e">
+        <v>346</v>
+      </c>
+      <c r="CQ30" s="27">
         <f ca="1">IF(TODAY()&gt;=CQ$27,ガント!CZ154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CR30" s="27" t="e">
+        <v>346</v>
+      </c>
+      <c r="CR30" s="27">
         <f ca="1">IF(TODAY()&gt;=CR$27,ガント!DA154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CS30" s="27" t="e">
+        <v>346</v>
+      </c>
+      <c r="CS30" s="27">
         <f ca="1">IF(TODAY()&gt;=CS$27,ガント!DB154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CT30" s="27" t="e">
+        <v>363</v>
+      </c>
+      <c r="CT30" s="27">
         <f ca="1">IF(TODAY()&gt;=CT$27,ガント!DC154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CU30" s="27" t="e">
+        <v>363</v>
+      </c>
+      <c r="CU30" s="27">
         <f ca="1">IF(TODAY()&gt;=CU$27,ガント!DD154,NA())</f>
-        <v>#N/A</v>
+        <v>363</v>
       </c>
       <c r="CV30" s="27" t="e">
         <f ca="1">IF(TODAY()&gt;=CV$27,ガント!DE154,NA())</f>
@@ -63568,7 +63608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:113" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:113" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>38</v>
       </c>
@@ -63898,71 +63938,71 @@
       </c>
       <c r="CE31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-134</v>
+        <v>-55</v>
       </c>
       <c r="CF31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-141</v>
+        <v>-62</v>
       </c>
       <c r="CG31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-124</v>
+        <v>-31</v>
       </c>
       <c r="CH31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-132</v>
+        <v>-34</v>
       </c>
       <c r="CI31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-132</v>
+        <v>-34</v>
       </c>
       <c r="CJ31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-132</v>
+        <v>-34</v>
       </c>
       <c r="CK31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-141</v>
+        <v>-43</v>
       </c>
       <c r="CL31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-149</v>
+        <v>-51</v>
       </c>
       <c r="CM31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-158</v>
+        <v>-60</v>
       </c>
       <c r="CN31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>-166</v>
-      </c>
-      <c r="CO31" s="25" t="e">
+        <v>-57</v>
+      </c>
+      <c r="CO31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CP31" s="25" t="e">
+        <v>-64</v>
+      </c>
+      <c r="CP31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CQ31" s="25" t="e">
+        <v>-64</v>
+      </c>
+      <c r="CQ31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CR31" s="25" t="e">
+        <v>-64</v>
+      </c>
+      <c r="CR31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CS31" s="25" t="e">
+        <v>-66</v>
+      </c>
+      <c r="CS31" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CT31" s="25" t="e">
+        <v>-51</v>
+      </c>
+      <c r="CT31" s="25">
         <f t="shared" ref="CT31:DI31" ca="1" si="3">IF(ISERR(CT30-CT28),NA(),CT30-CT28)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CU31" s="25" t="e">
+        <v>-53</v>
+      </c>
+      <c r="CU31" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
+        <v>-55</v>
       </c>
       <c r="CV31" s="25" t="e">
         <f t="shared" ca="1" si="3"/>
@@ -64021,7 +64061,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:113" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>39</v>
       </c>
@@ -64351,71 +64391,71 @@
       </c>
       <c r="CE32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-127</v>
+        <v>-48</v>
       </c>
       <c r="CF32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-136</v>
+        <v>-57</v>
       </c>
       <c r="CG32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-121</v>
+        <v>-28</v>
       </c>
       <c r="CH32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-129</v>
+        <v>-31</v>
       </c>
       <c r="CI32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-129</v>
+        <v>-31</v>
       </c>
       <c r="CJ32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-129</v>
+        <v>-31</v>
       </c>
       <c r="CK32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-137</v>
+        <v>-39</v>
       </c>
       <c r="CL32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-145</v>
+        <v>-47</v>
       </c>
       <c r="CM32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-150</v>
+        <v>-52</v>
       </c>
       <c r="CN32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>-155</v>
-      </c>
-      <c r="CO32" s="23" t="e">
+        <v>-46</v>
+      </c>
+      <c r="CO32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CP32" s="23" t="e">
+        <v>-49</v>
+      </c>
+      <c r="CP32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CQ32" s="23" t="e">
+        <v>-49</v>
+      </c>
+      <c r="CQ32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CR32" s="23" t="e">
+        <v>-49</v>
+      </c>
+      <c r="CR32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CS32" s="23" t="e">
+        <v>-51</v>
+      </c>
+      <c r="CS32" s="23">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CT32" s="23" t="e">
+        <v>-38</v>
+      </c>
+      <c r="CT32" s="23">
         <f t="shared" ref="CT32:DI32" ca="1" si="7">IF(ISERR(CT30-CT29),NA(),CT30-CT29)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CU32" s="23" t="e">
+        <v>-40</v>
+      </c>
+      <c r="CU32" s="23">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
+        <v>-42</v>
       </c>
       <c r="CV32" s="23" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -64474,7 +64514,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:113" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>40</v>
       </c>
@@ -64804,71 +64844,71 @@
       </c>
       <c r="CE33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.60818713450292394</v>
+        <v>0.83918128654970758</v>
       </c>
       <c r="CF33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59598853868194845</v>
+        <v>0.82234957020057309</v>
       </c>
       <c r="CG33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.651685393258427</v>
+        <v>0.9129213483146067</v>
       </c>
       <c r="CH33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.63835616438356169</v>
+        <v>0.9068493150684932</v>
       </c>
       <c r="CI33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.63835616438356169</v>
+        <v>0.9068493150684932</v>
       </c>
       <c r="CJ33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.63835616438356169</v>
+        <v>0.9068493150684932</v>
       </c>
       <c r="CK33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62299465240641716</v>
+        <v>0.88502673796791442</v>
       </c>
       <c r="CL33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.60994764397905754</v>
+        <v>0.86649214659685869</v>
       </c>
       <c r="CM33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59590792838874684</v>
+        <v>0.84654731457800514</v>
       </c>
       <c r="CN33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.58395989974937346</v>
-      </c>
-      <c r="CO33" s="28" t="e">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="CO33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CP33" s="28" t="e">
+        <v>0.84390243902439022</v>
+      </c>
+      <c r="CP33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CQ33" s="28" t="e">
+        <v>0.84390243902439022</v>
+      </c>
+      <c r="CQ33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CR33" s="28" t="e">
+        <v>0.84390243902439022</v>
+      </c>
+      <c r="CR33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CS33" s="28" t="e">
+        <v>0.83980582524271841</v>
+      </c>
+      <c r="CS33" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CT33" s="28" t="e">
+        <v>0.87681159420289856</v>
+      </c>
+      <c r="CT33" s="28">
         <f t="shared" ref="CT33:DI33" ca="1" si="11">IF(ISERR(CT30/CT28),NA(),CT30/CT28)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CU33" s="28" t="e">
+        <v>0.87259615384615385</v>
+      </c>
+      <c r="CU33" s="28">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>0.86842105263157898</v>
       </c>
       <c r="CV33" s="28" t="e">
         <f t="shared" ca="1" si="11"/>
@@ -65257,71 +65297,71 @@
       </c>
       <c r="CE34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.62089552238805967</v>
+        <v>0.85671641791044773</v>
       </c>
       <c r="CF34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.60465116279069764</v>
+        <v>0.83430232558139539</v>
       </c>
       <c r="CG34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.65722379603399439</v>
+        <v>0.92067988668555245</v>
       </c>
       <c r="CH34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.64364640883977897</v>
+        <v>0.91436464088397795</v>
       </c>
       <c r="CI34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.64364640883977897</v>
+        <v>0.91436464088397795</v>
       </c>
       <c r="CJ34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.64364640883977897</v>
+        <v>0.91436464088397795</v>
       </c>
       <c r="CK34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.62972972972972974</v>
+        <v>0.89459459459459456</v>
       </c>
       <c r="CL34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.6164021164021164</v>
+        <v>0.8756613756613757</v>
       </c>
       <c r="CM34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.60835509138381205</v>
+        <v>0.86422976501305482</v>
       </c>
       <c r="CN34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.60051546391752575</v>
-      </c>
-      <c r="CO34" s="28" t="e">
+        <v>0.88144329896907214</v>
+      </c>
+      <c r="CO34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CP34" s="28" t="e">
+        <v>0.8759493670886076</v>
+      </c>
+      <c r="CP34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CQ34" s="28" t="e">
+        <v>0.8759493670886076</v>
+      </c>
+      <c r="CQ34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CR34" s="28" t="e">
+        <v>0.8759493670886076</v>
+      </c>
+      <c r="CR34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CS34" s="28" t="e">
+        <v>0.87153652392947101</v>
+      </c>
+      <c r="CS34" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CT34" s="28" t="e">
+        <v>0.90523690773067333</v>
+      </c>
+      <c r="CT34" s="28">
         <f t="shared" ref="CT34:DI34" ca="1" si="15">IF(ISERR(CT30/CT29),NA(),CT30/CT29)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CU34" s="28" t="e">
+        <v>0.90074441687344908</v>
+      </c>
+      <c r="CU34" s="28">
         <f t="shared" ca="1" si="15"/>
-        <v>#N/A</v>
+        <v>0.89629629629629626</v>
       </c>
       <c r="CV34" s="28" t="e">
         <f t="shared" ca="1" si="15"/>

--- a/PM演習_管理ツール_堀内研C班.xlsx
+++ b/PM演習_管理ツール_堀内研C班.xlsx
@@ -1901,35 +1901,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1947,23 +1941,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2826,7 +2826,7 @@
                   <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
@@ -2965,7 +2965,7 @@
                   <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
@@ -2988,11 +2988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133277184"/>
-        <c:axId val="91724544"/>
+        <c:axId val="133875200"/>
+        <c:axId val="94870272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="133277184"/>
+        <c:axId val="133875200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,14 +3002,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91724544"/>
+        <c:crossAx val="94870272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91724544"/>
+        <c:axId val="94870272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3030,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133277184"/>
+        <c:crossAx val="133875200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5228,11 +5228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127429120"/>
-        <c:axId val="105584256"/>
+        <c:axId val="131107328"/>
+        <c:axId val="102176384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="127429120"/>
+        <c:axId val="131107328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5242,14 +5242,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105584256"/>
+        <c:crossAx val="102176384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105584256"/>
+        <c:axId val="102176384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5260,7 +5260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127429120"/>
+        <c:crossAx val="131107328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5769,10 +5769,10 @@
   <dimension ref="A1:DS227"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="CP41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="CP44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CT130" sqref="CT130"/>
+      <selection pane="bottomRight" activeCell="DE140" sqref="DE140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5791,61 +5791,61 @@
       <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="77"/>
+      <c r="C1" s="89"/>
       <c r="D1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="84" t="s">
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="82" t="s">
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="88"/>
-      <c r="AN1" s="88"/>
-      <c r="AO1" s="88"/>
-      <c r="AP1" s="89"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="77"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A2" s="48"/>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="I2" s="50">
         <f t="array" ref="I2">SUM(IF(MOD(ROW(J5:J146),2)=0,J5:J146,0))/20</f>
-        <v>2.5437500000000002</v>
+        <v>2.6437499999999998</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>28</v>
@@ -5874,25 +5874,25 @@
       <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:122" ht="29.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="83" t="s">
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="52" t="s">
@@ -6020,10 +6020,10 @@
       <c r="DR3" s="54"/>
     </row>
     <row r="4" spans="1:122" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="56" t="str">
         <f>データ!A2</f>
         <v>井上</v>
@@ -6040,7 +6040,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="83"/>
+      <c r="I4" s="82"/>
       <c r="J4" s="57" t="s">
         <v>21</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
-      <c r="I5" s="75"/>
+      <c r="I5" s="87"/>
       <c r="J5" s="58" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DR5)/データ!$D$2,"")</f>
         <v/>
@@ -6522,7 +6522,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
-      <c r="I6" s="75"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="59" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v/>
@@ -6653,7 +6653,7 @@
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
-      <c r="I7" s="75"/>
+      <c r="I7" s="87"/>
       <c r="J7" s="58" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -6780,7 +6780,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
       <c r="H8" s="68"/>
-      <c r="I8" s="75"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="59" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -21478,7 +21478,7 @@
       <c r="G117" s="68"/>
       <c r="H117" s="68"/>
       <c r="I117" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" s="58">
         <f>IF(C117&lt;&gt;"",SUM(K117:DR117)/データ!$D$2,"")</f>
@@ -21611,7 +21611,7 @@
       <c r="I118" s="70"/>
       <c r="J118" s="59">
         <f>IF(C117&lt;&gt;"",SUM(K118:DR118)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K118" s="20"/>
       <c r="L118" s="20"/>
@@ -21710,12 +21710,20 @@
       <c r="DA118" s="20"/>
       <c r="DB118" s="20"/>
       <c r="DC118" s="20"/>
-      <c r="DD118" s="20"/>
-      <c r="DE118" s="20"/>
+      <c r="DD118" s="20">
+        <v>1</v>
+      </c>
+      <c r="DE118" s="20">
+        <v>1</v>
+      </c>
       <c r="DF118" s="20"/>
       <c r="DG118" s="20"/>
-      <c r="DH118" s="20"/>
-      <c r="DI118" s="20"/>
+      <c r="DH118" s="20">
+        <v>1</v>
+      </c>
+      <c r="DI118" s="20">
+        <v>1</v>
+      </c>
       <c r="DJ118" s="20"/>
       <c r="DK118" s="20"/>
       <c r="DL118" s="20"/>
@@ -21877,7 +21885,7 @@
       <c r="I120" s="70"/>
       <c r="J120" s="59">
         <f>IF(C119&lt;&gt;"",SUM(K120:DR120)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="K120" s="20"/>
       <c r="L120" s="20"/>
@@ -21977,11 +21985,17 @@
       <c r="DB120" s="20"/>
       <c r="DC120" s="20"/>
       <c r="DD120" s="20"/>
-      <c r="DE120" s="20"/>
+      <c r="DE120" s="20">
+        <v>1</v>
+      </c>
       <c r="DF120" s="20"/>
       <c r="DG120" s="20"/>
-      <c r="DH120" s="20"/>
-      <c r="DI120" s="20"/>
+      <c r="DH120" s="20">
+        <v>1</v>
+      </c>
+      <c r="DI120" s="20">
+        <v>1</v>
+      </c>
       <c r="DJ120" s="20"/>
       <c r="DK120" s="20"/>
       <c r="DL120" s="20"/>
@@ -23087,7 +23101,9 @@
         <v>97</v>
       </c>
       <c r="H129" s="68"/>
-      <c r="I129" s="69"/>
+      <c r="I129" s="69">
+        <v>1</v>
+      </c>
       <c r="J129" s="58">
         <f>IF(C129&lt;&gt;"",SUM(K129:DR129)/データ!$D$2,"")</f>
         <v>0.625</v>
@@ -23225,7 +23241,7 @@
       <c r="I130" s="70"/>
       <c r="J130" s="59">
         <f>IF(C129&lt;&gt;"",SUM(K130:DR130)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
@@ -23328,10 +23344,18 @@
       <c r="DE130" s="20"/>
       <c r="DF130" s="20"/>
       <c r="DG130" s="20"/>
-      <c r="DH130" s="20"/>
-      <c r="DI130" s="20"/>
-      <c r="DJ130" s="20"/>
-      <c r="DK130" s="20"/>
+      <c r="DH130" s="20">
+        <v>1</v>
+      </c>
+      <c r="DI130" s="20">
+        <v>1</v>
+      </c>
+      <c r="DJ130" s="20">
+        <v>1</v>
+      </c>
+      <c r="DK130" s="20">
+        <v>2</v>
+      </c>
       <c r="DL130" s="20"/>
       <c r="DM130" s="20"/>
       <c r="DN130" s="20"/>
@@ -23361,7 +23385,9 @@
         <v>97</v>
       </c>
       <c r="H131" s="68"/>
-      <c r="I131" s="69"/>
+      <c r="I131" s="69">
+        <v>1</v>
+      </c>
       <c r="J131" s="58">
         <f>IF(C131&lt;&gt;"",SUM(K131:DR131)/データ!$D$2,"")</f>
         <v>0.125</v>
@@ -23493,7 +23519,7 @@
       <c r="I132" s="70"/>
       <c r="J132" s="59">
         <f>IF(C131&lt;&gt;"",SUM(K132:DR132)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
@@ -23600,7 +23626,9 @@
       <c r="DI132" s="20"/>
       <c r="DJ132" s="20"/>
       <c r="DK132" s="20"/>
-      <c r="DL132" s="20"/>
+      <c r="DL132" s="20">
+        <v>1</v>
+      </c>
       <c r="DM132" s="20"/>
       <c r="DN132" s="20"/>
       <c r="DO132" s="20"/>
@@ -24041,7 +24069,7 @@
       <c r="I136" s="70"/>
       <c r="J136" s="59">
         <f>IF(C135&lt;&gt;"",SUM(K136:DR136)/データ!$D$2,"")</f>
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="K136" s="20"/>
       <c r="L136" s="20"/>
@@ -24163,7 +24191,9 @@
       <c r="DB136" s="20"/>
       <c r="DC136" s="20"/>
       <c r="DD136" s="20"/>
-      <c r="DE136" s="20"/>
+      <c r="DE136" s="20">
+        <v>1</v>
+      </c>
       <c r="DF136" s="20"/>
       <c r="DG136" s="20"/>
       <c r="DH136" s="20"/>
@@ -24351,7 +24381,7 @@
       <c r="I138" s="70"/>
       <c r="J138" s="59">
         <f>IF(C137&lt;&gt;"",SUM(K138:DR138)/データ!$D$2,"")</f>
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="K138" s="20"/>
       <c r="L138" s="20"/>
@@ -24471,7 +24501,9 @@
       <c r="DB138" s="20"/>
       <c r="DC138" s="20"/>
       <c r="DD138" s="20"/>
-      <c r="DE138" s="20"/>
+      <c r="DE138" s="20">
+        <v>1</v>
+      </c>
       <c r="DF138" s="20"/>
       <c r="DG138" s="20"/>
       <c r="DH138" s="20"/>
@@ -24663,7 +24695,7 @@
       <c r="I140" s="70"/>
       <c r="J140" s="59">
         <f>IF(C139&lt;&gt;"",SUM(K140:DR140)/データ!$D$2,"")</f>
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="K140" s="20"/>
       <c r="L140" s="20"/>
@@ -24785,7 +24817,9 @@
       <c r="DB140" s="20"/>
       <c r="DC140" s="20"/>
       <c r="DD140" s="20"/>
-      <c r="DE140" s="20"/>
+      <c r="DE140" s="20">
+        <v>1</v>
+      </c>
       <c r="DF140" s="20"/>
       <c r="DG140" s="20"/>
       <c r="DH140" s="20"/>
@@ -26411,11 +26445,11 @@
       </c>
       <c r="DD149" s="13">
         <f t="array" ref="DD149">SUM(IF(MOD(ROW(DD$5:DD$146),2)=0,DD$5:DD$146,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DE149" s="13">
         <f t="array" ref="DE149">SUM(IF(MOD(ROW(DE$5:DE$146),2)=0,DE$5:DE$146,0))</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="DF149" s="13">
         <f t="array" ref="DF149">SUM(IF(MOD(ROW(DF$5:DF$146),2)=0,DF$5:DF$146,0))</f>
@@ -26427,23 +26461,23 @@
       </c>
       <c r="DH149" s="13">
         <f t="array" ref="DH149">SUM(IF(MOD(ROW(DH$5:DH$146),2)=0,DH$5:DH$146,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DI149" s="13">
         <f t="array" ref="DI149">SUM(IF(MOD(ROW(DI$5:DI$146),2)=0,DI$5:DI$146,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DJ149" s="13">
         <f t="array" ref="DJ149">SUM(IF(MOD(ROW(DJ$5:DJ$146),2)=0,DJ$5:DJ$146,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK149" s="13">
         <f t="array" ref="DK149">SUM(IF(MOD(ROW(DK$5:DK$146),2)=0,DK$5:DK$146,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DL149" s="13">
         <f t="array" ref="DL149">SUM(IF(MOD(ROW(DL$5:DL$146),2)=0,DL$5:DL$146,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM149" s="13">
         <f t="array" ref="DM149">SUM(IF(MOD(ROW(DM$5:DM$146),2)=0,DM$5:DM$146,0))</f>
@@ -28229,63 +28263,63 @@
       </c>
       <c r="DD153" s="15">
         <f t="shared" si="9"/>
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="DE153" s="15">
         <f t="shared" si="9"/>
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="DF153" s="15">
         <f t="shared" si="9"/>
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="DG153" s="15">
         <f t="shared" si="9"/>
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="DH153" s="15">
         <f t="shared" si="9"/>
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="DI153" s="15">
         <f t="shared" si="9"/>
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="DJ153" s="15">
         <f t="shared" si="9"/>
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="DK153" s="15">
         <f t="shared" si="9"/>
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="DL153" s="15">
         <f t="shared" si="9"/>
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="DM153" s="15">
         <f t="shared" si="9"/>
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="DN153" s="15">
         <f t="shared" si="9"/>
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="DO153" s="15">
         <f t="shared" si="9"/>
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="DP153" s="15">
         <f t="shared" si="9"/>
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="DQ153" s="15">
         <f t="shared" si="9"/>
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="DR153" s="15">
         <f t="shared" si="9"/>
-        <v>407</v>
+        <v>423</v>
       </c>
     </row>
     <row r="154" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -28703,43 +28737,43 @@
       </c>
       <c r="DI154" s="15">
         <f>SUM(DI157:DI227)*データ!$D$2</f>
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="DJ154" s="15">
         <f>SUM(DJ157:DJ227)*データ!$D$2</f>
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="DK154" s="15">
         <f>SUM(DK157:DK227)*データ!$D$2</f>
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="DL154" s="15">
         <f>SUM(DL157:DL227)*データ!$D$2</f>
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="DM154" s="15">
         <f>SUM(DM157:DM227)*データ!$D$2</f>
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="DN154" s="15">
         <f>SUM(DN157:DN227)*データ!$D$2</f>
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="DO154" s="15">
         <f>SUM(DO157:DO227)*データ!$D$2</f>
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="DP154" s="15">
         <f>SUM(DP157:DP227)*データ!$D$2</f>
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="DQ154" s="15">
         <f>SUM(DQ157:DQ227)*データ!$D$2</f>
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="DR154" s="15">
         <f>SUM(DR157:DR227)*データ!$D$2</f>
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="155" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -54394,43 +54428,43 @@
       </c>
       <c r="DI213" s="14">
         <f>IF($J117&lt;&gt;"",$I117*IF(COUNTA(DJ118:$DR118)=0,$J117,0),0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DJ213" s="14">
         <f>IF($J117&lt;&gt;"",$I117*IF(COUNTA(DK118:$DR118)=0,$J117,0),0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DK213" s="14">
         <f>IF($J117&lt;&gt;"",$I117*IF(COUNTA(DL118:$DR118)=0,$J117,0),0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DL213" s="14">
         <f>IF($J117&lt;&gt;"",$I117*IF(COUNTA(DM118:$DR118)=0,$J117,0),0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DM213" s="14">
         <f>IF($J117&lt;&gt;"",$I117*IF(COUNTA(DN118:$DR118)=0,$J117,0),0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DN213" s="14">
         <f>IF($J117&lt;&gt;"",$I117*IF(COUNTA(DO118:$DR118)=0,$J117,0),0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DO213" s="14">
         <f>IF($J117&lt;&gt;"",$I117*IF(COUNTA(DP118:$DR118)=0,$J117,0),0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DP213" s="14">
         <f>IF($J117&lt;&gt;"",$I117*IF(COUNTA(DQ118:$DR118)=0,$J117,0),0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DQ213" s="14">
         <f>IF($J117&lt;&gt;"",$I117*IF(COUNTA(DR118:$DR118)=0,$J117,0),0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DR213" s="14">
         <f>IF($J117&lt;&gt;"",$I117*IF(COUNTA($DR118:DS118)=0,$J117,0),0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="214" spans="11:122" x14ac:dyDescent="0.2">
@@ -57102,35 +57136,35 @@
       </c>
       <c r="DK219" s="14">
         <f>IF($J129&lt;&gt;"",$I129*IF(COUNTA(DL130:$DR130)=0,$J129,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DL219" s="14">
         <f>IF($J129&lt;&gt;"",$I129*IF(COUNTA(DM130:$DR130)=0,$J129,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DM219" s="14">
         <f>IF($J129&lt;&gt;"",$I129*IF(COUNTA(DN130:$DR130)=0,$J129,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DN219" s="14">
         <f>IF($J129&lt;&gt;"",$I129*IF(COUNTA(DO130:$DR130)=0,$J129,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DO219" s="14">
         <f>IF($J129&lt;&gt;"",$I129*IF(COUNTA(DP130:$DR130)=0,$J129,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DP219" s="14">
         <f>IF($J129&lt;&gt;"",$I129*IF(COUNTA(DQ130:$DR130)=0,$J129,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DQ219" s="14">
         <f>IF($J129&lt;&gt;"",$I129*IF(COUNTA(DR130:$DR130)=0,$J129,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="DR219" s="14">
         <f>IF($J129&lt;&gt;"",$I129*IF(COUNTA($DR130:DS130)=0,$J129,0),0)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="220" spans="11:122" x14ac:dyDescent="0.2">
@@ -57556,31 +57590,31 @@
       </c>
       <c r="DL220" s="14">
         <f>IF($J131&lt;&gt;"",$I131*IF(COUNTA(DM132:$DR132)=0,$J131,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DM220" s="14">
         <f>IF($J131&lt;&gt;"",$I131*IF(COUNTA(DN132:$DR132)=0,$J131,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DN220" s="14">
         <f>IF($J131&lt;&gt;"",$I131*IF(COUNTA(DO132:$DR132)=0,$J131,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DO220" s="14">
         <f>IF($J131&lt;&gt;"",$I131*IF(COUNTA(DP132:$DR132)=0,$J131,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DP220" s="14">
         <f>IF($J131&lt;&gt;"",$I131*IF(COUNTA(DQ132:$DR132)=0,$J131,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DQ220" s="14">
         <f>IF($J131&lt;&gt;"",$I131*IF(COUNTA(DR132:$DR132)=0,$J131,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DR220" s="14">
         <f>IF($J131&lt;&gt;"",$I131*IF(COUNTA($DR132:DS132)=0,$J131,0),0)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="221" spans="11:122" x14ac:dyDescent="0.2">
@@ -60739,114 +60773,527 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="653">
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G35:G36"/>
@@ -60871,527 +61318,114 @@
     <mergeCell ref="E55:E56"/>
     <mergeCell ref="I55:I56"/>
     <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K151:DR151 K4:DR70 K85:BX85">
@@ -63095,27 +63129,27 @@
       </c>
       <c r="CU29" s="30">
         <f ca="1">IF(TODAY()&gt;=CU$27,ガント!DD153,NA())</f>
-        <v>405</v>
-      </c>
-      <c r="CV29" s="30" t="e">
+        <v>406</v>
+      </c>
+      <c r="CV29" s="30">
         <f ca="1">IF(TODAY()&gt;=CV$27,ガント!DE153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CW29" s="30" t="e">
+        <v>413</v>
+      </c>
+      <c r="CW29" s="30">
         <f ca="1">IF(TODAY()&gt;=CW$27,ガント!DF153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CX29" s="30" t="e">
+        <v>413</v>
+      </c>
+      <c r="CX29" s="30">
         <f ca="1">IF(TODAY()&gt;=CX$27,ガント!DG153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CY29" s="30" t="e">
+        <v>413</v>
+      </c>
+      <c r="CY29" s="30">
         <f ca="1">IF(TODAY()&gt;=CY$27,ガント!DH153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CZ29" s="30" t="e">
+        <v>416</v>
+      </c>
+      <c r="CZ29" s="30">
         <f ca="1">IF(TODAY()&gt;=CZ$27,ガント!DI153,NA())</f>
-        <v>#N/A</v>
+        <v>419</v>
       </c>
       <c r="DA29" s="30" t="e">
         <f ca="1">IF(TODAY()&gt;=DA$27,ガント!DJ153,NA())</f>
@@ -63551,25 +63585,25 @@
         <f ca="1">IF(TODAY()&gt;=CU$27,ガント!DD154,NA())</f>
         <v>363</v>
       </c>
-      <c r="CV30" s="27" t="e">
+      <c r="CV30" s="27">
         <f ca="1">IF(TODAY()&gt;=CV$27,ガント!DE154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CW30" s="27" t="e">
+        <v>373</v>
+      </c>
+      <c r="CW30" s="27">
         <f ca="1">IF(TODAY()&gt;=CW$27,ガント!DF154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CX30" s="27" t="e">
+        <v>373</v>
+      </c>
+      <c r="CX30" s="27">
         <f ca="1">IF(TODAY()&gt;=CX$27,ガント!DG154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CY30" s="27" t="e">
+        <v>373</v>
+      </c>
+      <c r="CY30" s="27">
         <f ca="1">IF(TODAY()&gt;=CY$27,ガント!DH154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CZ30" s="27" t="e">
+        <v>373</v>
+      </c>
+      <c r="CZ30" s="27">
         <f ca="1">IF(TODAY()&gt;=CZ$27,ガント!DI154,NA())</f>
-        <v>#N/A</v>
+        <v>377</v>
       </c>
       <c r="DA30" s="27" t="e">
         <f ca="1">IF(TODAY()&gt;=DA$27,ガント!DJ154,NA())</f>
@@ -64004,25 +64038,25 @@
         <f t="shared" ca="1" si="3"/>
         <v>-55</v>
       </c>
-      <c r="CV31" s="25" t="e">
+      <c r="CV31" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CW31" s="25" t="e">
+        <v>-50</v>
+      </c>
+      <c r="CW31" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CX31" s="25" t="e">
+        <v>-50</v>
+      </c>
+      <c r="CX31" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CY31" s="25" t="e">
+        <v>-50</v>
+      </c>
+      <c r="CY31" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CZ31" s="25" t="e">
+        <v>-51</v>
+      </c>
+      <c r="CZ31" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
+        <v>-48</v>
       </c>
       <c r="DA31" s="25" t="e">
         <f t="shared" ca="1" si="3"/>
@@ -64455,27 +64489,27 @@
       </c>
       <c r="CU32" s="23">
         <f t="shared" ca="1" si="7"/>
+        <v>-43</v>
+      </c>
+      <c r="CV32" s="23">
+        <f t="shared" ca="1" si="7"/>
+        <v>-40</v>
+      </c>
+      <c r="CW32" s="23">
+        <f t="shared" ca="1" si="7"/>
+        <v>-40</v>
+      </c>
+      <c r="CX32" s="23">
+        <f t="shared" ca="1" si="7"/>
+        <v>-40</v>
+      </c>
+      <c r="CY32" s="23">
+        <f t="shared" ca="1" si="7"/>
+        <v>-43</v>
+      </c>
+      <c r="CZ32" s="23">
+        <f t="shared" ca="1" si="7"/>
         <v>-42</v>
-      </c>
-      <c r="CV32" s="23" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CW32" s="23" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CX32" s="23" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CY32" s="23" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CZ32" s="23" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
       </c>
       <c r="DA32" s="23" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -64910,25 +64944,25 @@
         <f t="shared" ca="1" si="11"/>
         <v>0.86842105263157898</v>
       </c>
-      <c r="CV33" s="28" t="e">
+      <c r="CV33" s="28">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CW33" s="28" t="e">
+        <v>0.88179669030732866</v>
+      </c>
+      <c r="CW33" s="28">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CX33" s="28" t="e">
+        <v>0.88179669030732866</v>
+      </c>
+      <c r="CX33" s="28">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CY33" s="28" t="e">
+        <v>0.88179669030732866</v>
+      </c>
+      <c r="CY33" s="28">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CZ33" s="28" t="e">
+        <v>0.87971698113207553</v>
+      </c>
+      <c r="CZ33" s="28">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>0.88705882352941179</v>
       </c>
       <c r="DA33" s="28" t="e">
         <f t="shared" ca="1" si="11"/>
@@ -65361,27 +65395,27 @@
       </c>
       <c r="CU34" s="28">
         <f t="shared" ca="1" si="15"/>
-        <v>0.89629629629629626</v>
-      </c>
-      <c r="CV34" s="28" t="e">
+        <v>0.89408866995073888</v>
+      </c>
+      <c r="CV34" s="28">
         <f t="shared" ca="1" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CW34" s="28" t="e">
+        <v>0.90314769975786924</v>
+      </c>
+      <c r="CW34" s="28">
         <f t="shared" ca="1" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CX34" s="28" t="e">
+        <v>0.90314769975786924</v>
+      </c>
+      <c r="CX34" s="28">
         <f t="shared" ca="1" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CY34" s="28" t="e">
+        <v>0.90314769975786924</v>
+      </c>
+      <c r="CY34" s="28">
         <f t="shared" ca="1" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CZ34" s="28" t="e">
+        <v>0.89663461538461542</v>
+      </c>
+      <c r="CZ34" s="28">
         <f t="shared" ca="1" si="15"/>
-        <v>#N/A</v>
+        <v>0.89976133651551315</v>
       </c>
       <c r="DA34" s="28" t="e">
         <f t="shared" ca="1" si="15"/>
